--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\aural-landscapes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE67A7-4E6C-424B-AA74-834F234F8D80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D976F51-F036-4967-9133-23AAD737656F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11295" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="38">
   <si>
     <t>taxon</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>wood thrush</t>
+  </si>
+  <si>
+    <t>observation</t>
   </si>
 </sst>
 </file>
@@ -143,8 +146,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="168" formatCode="hh:mm"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -178,8 +181,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,27 +497,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.40625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.40625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" customWidth="1"/>
+    <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +552,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -572,7 +575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -595,7 +598,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -618,7 +621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -641,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -664,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -687,7 +690,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -710,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -733,7 +736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -756,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -779,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -802,7 +805,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -825,7 +828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -848,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -871,7 +874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -894,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -917,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -940,7 +943,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -963,7 +966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -986,7 +989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1015,7 +1018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1044,7 +1047,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1243,8 +1246,31 @@
         <v>29</v>
       </c>
     </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.21944444444444444</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A2:J11">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="C2:C11"/>
     <sortCondition ref="D2:D11"/>
   </sortState>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D976F51-F036-4967-9133-23AAD737656F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F1C13-0CEB-4EF3-8D55-87E24D717AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="reviewedPosts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
   <si>
     <t>taxon</t>
   </si>
@@ -139,6 +140,21 @@
   </si>
   <si>
     <t>observation</t>
+  </si>
+  <si>
+    <t>mallard</t>
+  </si>
+  <si>
+    <t>canada goose</t>
+  </si>
+  <si>
+    <t>Morton Arboretum</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/01/</t>
+  </si>
+  <si>
+    <t>2017-01</t>
   </si>
 </sst>
 </file>
@@ -497,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1269,6 +1285,52 @@
         <v>37</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42751</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42751</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.24236111111111111</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="C2:C11"/>
@@ -1276,4 +1338,24 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694D75CF-C175-4F93-BFA7-82BE06AE6E43}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F1C13-0CEB-4EF3-8D55-87E24D717AA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E73C097-B1D4-4B05-B393-D60939B597AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="2110" yWindow="2110" windowWidth="13685" windowHeight="7830" activeTab="1" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="71">
   <si>
     <t>taxon</t>
   </si>
@@ -155,6 +155,90 @@
   </si>
   <si>
     <t>2017-01</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/02/</t>
+  </si>
+  <si>
+    <t>time estimated; "just before sunrise"</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/03/</t>
+  </si>
+  <si>
+    <t>time estimated… based on ca. 4:50 departure standard that year</t>
+  </si>
+  <si>
+    <t>herps</t>
+  </si>
+  <si>
+    <t>time estimated; some time early in walk</t>
+  </si>
+  <si>
+    <t>chorus frog</t>
+  </si>
+  <si>
+    <t>spring peeper</t>
+  </si>
+  <si>
+    <t>woodcock</t>
+  </si>
+  <si>
+    <t>chickadee</t>
+  </si>
+  <si>
+    <t>time estimated; some time near end of walk</t>
+  </si>
+  <si>
+    <t>time estimated; some time on way into arb; arrived at 5:15</t>
+  </si>
+  <si>
+    <t>time estimated; some time later in walk</t>
+  </si>
+  <si>
+    <t>wood duck</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/04/</t>
+  </si>
+  <si>
+    <t>american toad</t>
+  </si>
+  <si>
+    <t>field sparrow</t>
+  </si>
+  <si>
+    <t>towhee</t>
+  </si>
+  <si>
+    <t>tufted titmouse</t>
+  </si>
+  <si>
+    <t>redwing blackbird</t>
+  </si>
+  <si>
+    <t>time estimated; "the sun is well up by now"</t>
+  </si>
+  <si>
+    <t>time uncertain; recorded from this wknd, and while I remember the walk, I only suspect it was a late-morning walk</t>
+  </si>
+  <si>
+    <t>time estimated based on narrative and arrival time</t>
+  </si>
+  <si>
+    <t>chipping sparrow</t>
+  </si>
+  <si>
+    <t>time estimated based on standard departure time that spring</t>
+  </si>
+  <si>
+    <t>2017-02</t>
+  </si>
+  <si>
+    <t>2017-03</t>
+  </si>
+  <si>
+    <t>2017-04</t>
   </si>
 </sst>
 </file>
@@ -165,10 +249,16 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -513,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView topLeftCell="G67" workbookViewId="0">
+      <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1308,7 +1398,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1329,6 +1419,1201 @@
       </c>
       <c r="J33" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42788</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42788</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>40</v>
+      </c>
+      <c r="J35" t="s">
+        <v>43</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42814</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.21527777777777779</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42788</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42814</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42814</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42814</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42814</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s">
+        <v>45</v>
+      </c>
+      <c r="K44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A46" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="2">
+        <v>42800</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>40</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>40</v>
+      </c>
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s">
+        <v>45</v>
+      </c>
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="2">
+        <v>42795</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.21180555555555555</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>47</v>
+      </c>
+      <c r="C56" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D57" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>40</v>
+      </c>
+      <c r="J58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>40</v>
+      </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D60" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>40</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A61" t="s">
+        <v>35</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D61" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" t="s">
+        <v>40</v>
+      </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42851</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>40</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D63" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" t="s">
+        <v>40</v>
+      </c>
+      <c r="J63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>40</v>
+      </c>
+      <c r="J64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D65" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>40</v>
+      </c>
+      <c r="J65" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A66" t="s">
+        <v>59</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D66" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>40</v>
+      </c>
+      <c r="J66" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>40</v>
+      </c>
+      <c r="J67" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A68" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D68" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>40</v>
+      </c>
+      <c r="J68" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D69" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>40</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>19</v>
+      </c>
+      <c r="C70" s="2">
+        <v>42849</v>
+      </c>
+      <c r="D70" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>40</v>
+      </c>
+      <c r="J70" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A71" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="2">
+        <v>42841</v>
+      </c>
+      <c r="D71" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A72" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="2">
+        <v>42844</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" t="s">
+        <v>40</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A73" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="2">
+        <v>42835</v>
+      </c>
+      <c r="D73" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" t="s">
+        <v>9</v>
+      </c>
+      <c r="J73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A74" t="s">
+        <v>33</v>
+      </c>
+      <c r="B74" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="2">
+        <v>42835</v>
+      </c>
+      <c r="D74" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" t="s">
+        <v>40</v>
+      </c>
+      <c r="J74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A75" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="2">
+        <v>42835</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" t="s">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A76" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="2">
+        <v>42835</v>
+      </c>
+      <c r="D76" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" t="s">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s">
+        <v>57</v>
+      </c>
+      <c r="K76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A77" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="2">
+        <v>42835</v>
+      </c>
+      <c r="D77" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" t="s">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s">
+        <v>57</v>
+      </c>
+      <c r="K77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="2">
+        <v>42835</v>
+      </c>
+      <c r="D78" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" t="s">
+        <v>40</v>
+      </c>
+      <c r="J78" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A79" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="2">
+        <v>42830</v>
+      </c>
+      <c r="D79" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" t="s">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A80" t="s">
+        <v>50</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="2">
+        <v>42830</v>
+      </c>
+      <c r="D80" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" t="s">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1342,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694D75CF-C175-4F93-BFA7-82BE06AE6E43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1355,7 +2640,23 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E73C097-B1D4-4B05-B393-D60939B597AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39C94E-3EE8-4C3E-A3B7-A5848F163CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="2110" windowWidth="13685" windowHeight="7830" activeTab="1" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="2110" yWindow="2110" windowWidth="13685" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="observations" sheetId="1" r:id="rId1"/>
     <sheet name="reviewedPosts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
   <dimension ref="A1:K80"/>
   <sheetViews>
-    <sheetView topLeftCell="G67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
       <selection activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
@@ -2629,7 +2629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694D75CF-C175-4F93-BFA7-82BE06AE6E43}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39C94E-3EE8-4C3E-A3B7-A5848F163CC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452680B9-3836-4937-B4E2-1396805973D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="2110" windowWidth="13685" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="observations" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="101">
   <si>
     <t>taxon</t>
   </si>
@@ -239,6 +239,96 @@
   </si>
   <si>
     <t>2017-04</t>
+  </si>
+  <si>
+    <t>red-eyed vireo</t>
+  </si>
+  <si>
+    <t>eastern wood peewee</t>
+  </si>
+  <si>
+    <t>common yellowthroat</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/05/</t>
+  </si>
+  <si>
+    <t>great crested flycatcher</t>
+  </si>
+  <si>
+    <t>green frog</t>
+  </si>
+  <si>
+    <t>time estimated from sequence of events in post</t>
+  </si>
+  <si>
+    <t>scarlet tanager</t>
+  </si>
+  <si>
+    <t>blue-winged warbler</t>
+  </si>
+  <si>
+    <t>Greene Valley Forest Preserve</t>
+  </si>
+  <si>
+    <t>field cricket</t>
+  </si>
+  <si>
+    <t>Downers Grove</t>
+  </si>
+  <si>
+    <t>tree swallow</t>
+  </si>
+  <si>
+    <t>blue-gray gnatcatcher</t>
+  </si>
+  <si>
+    <t>veery</t>
+  </si>
+  <si>
+    <t>ruby-crowned kinglet</t>
+  </si>
+  <si>
+    <t>eastern phoebe</t>
+  </si>
+  <si>
+    <t>ovenbird</t>
+  </si>
+  <si>
+    <t>black-throated green warbler</t>
+  </si>
+  <si>
+    <t>yellow warbler</t>
+  </si>
+  <si>
+    <t>pileated woodpecker</t>
+  </si>
+  <si>
+    <t>indigo bunting</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/06/</t>
+  </si>
+  <si>
+    <t>nighthawk</t>
+  </si>
+  <si>
+    <t>time approximate; only recorded as "Saturday night… light-night run to the grocery story"</t>
+  </si>
+  <si>
+    <t>killdeer</t>
+  </si>
+  <si>
+    <t>swamp sparrow</t>
+  </si>
+  <si>
+    <t>bluebird</t>
+  </si>
+  <si>
+    <t>cedar waxwing</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com/2017/10/</t>
   </si>
 </sst>
 </file>
@@ -249,7 +339,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,6 +349,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -284,11 +383,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
-      <selection activeCell="J81" sqref="J81"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -623,38 +725,38 @@
     <col min="10" max="10" width="33.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2614,6 +2716,2063 @@
       </c>
       <c r="K80" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A81" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D81" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+      <c r="F81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s">
+        <v>74</v>
+      </c>
+      <c r="K81" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D82" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" t="s">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s">
+        <v>74</v>
+      </c>
+      <c r="K82" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" t="s">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s">
+        <v>74</v>
+      </c>
+      <c r="K83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A84" t="s">
+        <v>17</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D84" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" t="s">
+        <v>40</v>
+      </c>
+      <c r="J84" t="s">
+        <v>74</v>
+      </c>
+      <c r="K84" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A85" t="s">
+        <v>73</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D85" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E85" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" t="s">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s">
+        <v>74</v>
+      </c>
+      <c r="K85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D86" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E86" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" t="s">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s">
+        <v>74</v>
+      </c>
+      <c r="K86" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A87" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D87" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s">
+        <v>74</v>
+      </c>
+      <c r="K87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B88" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="2">
+        <v>42886</v>
+      </c>
+      <c r="D88" s="3">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s">
+        <v>74</v>
+      </c>
+      <c r="K88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A89" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="2">
+        <v>42879</v>
+      </c>
+      <c r="D89" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E89" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" t="s">
+        <v>40</v>
+      </c>
+      <c r="J89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A90" t="s">
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="2">
+        <v>42879</v>
+      </c>
+      <c r="D90" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E90" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" t="s">
+        <v>40</v>
+      </c>
+      <c r="J90" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A91" t="s">
+        <v>36</v>
+      </c>
+      <c r="B91" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="2">
+        <v>42879</v>
+      </c>
+      <c r="D91" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A92" t="s">
+        <v>78</v>
+      </c>
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="2">
+        <v>42875</v>
+      </c>
+      <c r="D92" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" t="s">
+        <v>80</v>
+      </c>
+      <c r="J92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A93" t="s">
+        <v>79</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="2">
+        <v>42875</v>
+      </c>
+      <c r="D93" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="E93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" t="s">
+        <v>80</v>
+      </c>
+      <c r="J93" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94" s="2">
+        <v>42877</v>
+      </c>
+      <c r="D94" s="3">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E94" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" t="s">
+        <v>82</v>
+      </c>
+      <c r="J94" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D95" s="3">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E95" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" t="s">
+        <v>40</v>
+      </c>
+      <c r="J95" t="s">
+        <v>74</v>
+      </c>
+      <c r="K95" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A96" t="s">
+        <v>73</v>
+      </c>
+      <c r="B96" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D96" s="3">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E96" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" t="s">
+        <v>40</v>
+      </c>
+      <c r="J96" t="s">
+        <v>74</v>
+      </c>
+      <c r="K96" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D97" s="3">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E97" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97" t="s">
+        <v>40</v>
+      </c>
+      <c r="J97" t="s">
+        <v>74</v>
+      </c>
+      <c r="K97" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A98" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D98" s="3">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="E98" t="s">
+        <v>8</v>
+      </c>
+      <c r="F98" t="s">
+        <v>40</v>
+      </c>
+      <c r="J98" t="s">
+        <v>74</v>
+      </c>
+      <c r="K98" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A99" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D99" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99" t="s">
+        <v>40</v>
+      </c>
+      <c r="J99" t="s">
+        <v>74</v>
+      </c>
+      <c r="K99" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100" t="s">
+        <v>40</v>
+      </c>
+      <c r="J100" t="s">
+        <v>74</v>
+      </c>
+      <c r="K100" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B101" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D101" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F101" t="s">
+        <v>40</v>
+      </c>
+      <c r="J101" t="s">
+        <v>74</v>
+      </c>
+      <c r="K101" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A102" t="s">
+        <v>72</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D102" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E102" t="s">
+        <v>8</v>
+      </c>
+      <c r="F102" t="s">
+        <v>40</v>
+      </c>
+      <c r="J102" t="s">
+        <v>74</v>
+      </c>
+      <c r="K102" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A103" t="s">
+        <v>83</v>
+      </c>
+      <c r="B103" t="s">
+        <v>19</v>
+      </c>
+      <c r="C103" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D103" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>40</v>
+      </c>
+      <c r="J103" t="s">
+        <v>74</v>
+      </c>
+      <c r="K103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A104" t="s">
+        <v>75</v>
+      </c>
+      <c r="B104" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D104" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E104" t="s">
+        <v>8</v>
+      </c>
+      <c r="F104" t="s">
+        <v>40</v>
+      </c>
+      <c r="J104" t="s">
+        <v>74</v>
+      </c>
+      <c r="K104" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D105" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E105" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="J105" t="s">
+        <v>74</v>
+      </c>
+      <c r="K105" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E106" t="s">
+        <v>8</v>
+      </c>
+      <c r="F106" t="s">
+        <v>40</v>
+      </c>
+      <c r="J106" t="s">
+        <v>74</v>
+      </c>
+      <c r="K106" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A107" t="s">
+        <v>52</v>
+      </c>
+      <c r="B107" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D107" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E107" t="s">
+        <v>8</v>
+      </c>
+      <c r="F107" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s">
+        <v>74</v>
+      </c>
+      <c r="K107" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D108" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E108" t="s">
+        <v>8</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="J108" t="s">
+        <v>74</v>
+      </c>
+      <c r="K108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A109" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D109" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E109" t="s">
+        <v>8</v>
+      </c>
+      <c r="F109" t="s">
+        <v>40</v>
+      </c>
+      <c r="J109" t="s">
+        <v>74</v>
+      </c>
+      <c r="K109" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A110" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="2">
+        <v>42872</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E110" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110" t="s">
+        <v>40</v>
+      </c>
+      <c r="J110" t="s">
+        <v>74</v>
+      </c>
+      <c r="K110" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A111" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D111" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E111" t="s">
+        <v>8</v>
+      </c>
+      <c r="F111" t="s">
+        <v>40</v>
+      </c>
+      <c r="J111" t="s">
+        <v>74</v>
+      </c>
+      <c r="K111" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A112" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D112" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E112" t="s">
+        <v>8</v>
+      </c>
+      <c r="F112" t="s">
+        <v>40</v>
+      </c>
+      <c r="J112" t="s">
+        <v>74</v>
+      </c>
+      <c r="K112" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A113" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D113" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113" t="s">
+        <v>40</v>
+      </c>
+      <c r="J113" t="s">
+        <v>74</v>
+      </c>
+      <c r="K113" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A114" t="s">
+        <v>73</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D114" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E114" t="s">
+        <v>8</v>
+      </c>
+      <c r="F114" t="s">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s">
+        <v>74</v>
+      </c>
+      <c r="K114" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A115" t="s">
+        <v>60</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D115" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E115" t="s">
+        <v>8</v>
+      </c>
+      <c r="F115" t="s">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s">
+        <v>74</v>
+      </c>
+      <c r="K115" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A116" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E116" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" t="s">
+        <v>40</v>
+      </c>
+      <c r="J116" t="s">
+        <v>74</v>
+      </c>
+      <c r="K116" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D117" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E117" t="s">
+        <v>8</v>
+      </c>
+      <c r="F117" t="s">
+        <v>40</v>
+      </c>
+      <c r="J117" t="s">
+        <v>74</v>
+      </c>
+      <c r="K117" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A118" t="s">
+        <v>49</v>
+      </c>
+      <c r="B118" t="s">
+        <v>47</v>
+      </c>
+      <c r="C118" s="2">
+        <v>42864</v>
+      </c>
+      <c r="D118" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E118" t="s">
+        <v>8</v>
+      </c>
+      <c r="F118" t="s">
+        <v>40</v>
+      </c>
+      <c r="J118" t="s">
+        <v>74</v>
+      </c>
+      <c r="K118" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B119" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D119" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E119" t="s">
+        <v>8</v>
+      </c>
+      <c r="F119" t="s">
+        <v>40</v>
+      </c>
+      <c r="J119" t="s">
+        <v>74</v>
+      </c>
+      <c r="K119" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A120" t="s">
+        <v>52</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D120" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E120" t="s">
+        <v>8</v>
+      </c>
+      <c r="F120" t="s">
+        <v>40</v>
+      </c>
+      <c r="J120" t="s">
+        <v>74</v>
+      </c>
+      <c r="K120" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A121" t="s">
+        <v>83</v>
+      </c>
+      <c r="B121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="E121" t="s">
+        <v>8</v>
+      </c>
+      <c r="F121" t="s">
+        <v>40</v>
+      </c>
+      <c r="J121" t="s">
+        <v>74</v>
+      </c>
+      <c r="K121" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A122" t="s">
+        <v>87</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D122" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="E122" t="s">
+        <v>8</v>
+      </c>
+      <c r="F122" t="s">
+        <v>40</v>
+      </c>
+      <c r="J122" t="s">
+        <v>74</v>
+      </c>
+      <c r="K122" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A123" t="s">
+        <v>88</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D123" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="E123" t="s">
+        <v>8</v>
+      </c>
+      <c r="F123" t="s">
+        <v>40</v>
+      </c>
+      <c r="J123" t="s">
+        <v>74</v>
+      </c>
+      <c r="K123" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A124" t="s">
+        <v>84</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D124" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E124" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" t="s">
+        <v>40</v>
+      </c>
+      <c r="J124" t="s">
+        <v>74</v>
+      </c>
+      <c r="K124" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A125" t="s">
+        <v>73</v>
+      </c>
+      <c r="B125" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D125" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E125" t="s">
+        <v>8</v>
+      </c>
+      <c r="F125" t="s">
+        <v>40</v>
+      </c>
+      <c r="J125" t="s">
+        <v>74</v>
+      </c>
+      <c r="K125" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A126" t="s">
+        <v>62</v>
+      </c>
+      <c r="B126" t="s">
+        <v>19</v>
+      </c>
+      <c r="C126" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D126" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E126" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126" t="s">
+        <v>40</v>
+      </c>
+      <c r="J126" t="s">
+        <v>74</v>
+      </c>
+      <c r="K126" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A127" t="s">
+        <v>89</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D127" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E127" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" t="s">
+        <v>40</v>
+      </c>
+      <c r="J127" t="s">
+        <v>74</v>
+      </c>
+      <c r="K127" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A128" t="s">
+        <v>12</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" s="2">
+        <v>42865</v>
+      </c>
+      <c r="D128" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E128" t="s">
+        <v>8</v>
+      </c>
+      <c r="F128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" t="s">
+        <v>74</v>
+      </c>
+      <c r="K128" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44418</v>
+      </c>
+      <c r="D129" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E129" t="s">
+        <v>8</v>
+      </c>
+      <c r="F129" t="s">
+        <v>9</v>
+      </c>
+      <c r="J129" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B130" t="s">
+        <v>19</v>
+      </c>
+      <c r="C130" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D130" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E130" t="s">
+        <v>8</v>
+      </c>
+      <c r="F130" t="s">
+        <v>40</v>
+      </c>
+      <c r="J130" t="s">
+        <v>74</v>
+      </c>
+      <c r="K130" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A131" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" t="s">
+        <v>19</v>
+      </c>
+      <c r="C131" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D131" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E131" t="s">
+        <v>8</v>
+      </c>
+      <c r="F131" t="s">
+        <v>40</v>
+      </c>
+      <c r="J131" t="s">
+        <v>74</v>
+      </c>
+      <c r="K131" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A132" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D132" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E132" t="s">
+        <v>8</v>
+      </c>
+      <c r="F132" t="s">
+        <v>40</v>
+      </c>
+      <c r="J132" t="s">
+        <v>74</v>
+      </c>
+      <c r="K132" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A133" t="s">
+        <v>35</v>
+      </c>
+      <c r="B133" t="s">
+        <v>19</v>
+      </c>
+      <c r="C133" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D133" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E133" t="s">
+        <v>8</v>
+      </c>
+      <c r="F133" t="s">
+        <v>40</v>
+      </c>
+      <c r="J133" t="s">
+        <v>74</v>
+      </c>
+      <c r="K133" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A134" t="s">
+        <v>59</v>
+      </c>
+      <c r="B134" t="s">
+        <v>19</v>
+      </c>
+      <c r="C134" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D134" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134" t="s">
+        <v>40</v>
+      </c>
+      <c r="J134" t="s">
+        <v>74</v>
+      </c>
+      <c r="K134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A135" t="s">
+        <v>90</v>
+      </c>
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E135" t="s">
+        <v>8</v>
+      </c>
+      <c r="F135" t="s">
+        <v>40</v>
+      </c>
+      <c r="J135" t="s">
+        <v>74</v>
+      </c>
+      <c r="K135" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A136" t="s">
+        <v>91</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" s="2">
+        <v>42863</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136" t="s">
+        <v>40</v>
+      </c>
+      <c r="J136" t="s">
+        <v>74</v>
+      </c>
+      <c r="K136" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="2">
+        <v>42858</v>
+      </c>
+      <c r="D137" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" t="s">
+        <v>40</v>
+      </c>
+      <c r="J137" t="s">
+        <v>74</v>
+      </c>
+      <c r="K137" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A138" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="2">
+        <v>42858</v>
+      </c>
+      <c r="D138" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E138" t="s">
+        <v>8</v>
+      </c>
+      <c r="F138" t="s">
+        <v>40</v>
+      </c>
+      <c r="J138" t="s">
+        <v>74</v>
+      </c>
+      <c r="K138" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A139" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" s="2">
+        <v>42858</v>
+      </c>
+      <c r="D139" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E139" t="s">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>40</v>
+      </c>
+      <c r="J139" t="s">
+        <v>74</v>
+      </c>
+      <c r="K139" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A140" t="s">
+        <v>36</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" s="2">
+        <v>42858</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E140" t="s">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>40</v>
+      </c>
+      <c r="J140" t="s">
+        <v>74</v>
+      </c>
+      <c r="K140" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A141" t="s">
+        <v>56</v>
+      </c>
+      <c r="B141" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="2">
+        <v>42858</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E141" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>40</v>
+      </c>
+      <c r="J141" t="s">
+        <v>74</v>
+      </c>
+      <c r="K141" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A142" t="s">
+        <v>89</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142" s="2">
+        <v>42858</v>
+      </c>
+      <c r="D142" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>40</v>
+      </c>
+      <c r="J142" t="s">
+        <v>74</v>
+      </c>
+      <c r="K142" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A143" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" s="2">
+        <v>42893</v>
+      </c>
+      <c r="D143" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E143" t="s">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>40</v>
+      </c>
+      <c r="J143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A144" t="s">
+        <v>92</v>
+      </c>
+      <c r="B144" t="s">
+        <v>19</v>
+      </c>
+      <c r="C144" s="2">
+        <v>42893</v>
+      </c>
+      <c r="D144" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>40</v>
+      </c>
+      <c r="J144" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44418</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145" t="s">
+        <v>9</v>
+      </c>
+      <c r="J145" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A146" t="s">
+        <v>36</v>
+      </c>
+      <c r="B146" t="s">
+        <v>19</v>
+      </c>
+      <c r="C146" s="2">
+        <v>42893</v>
+      </c>
+      <c r="D146" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="E146" t="s">
+        <v>8</v>
+      </c>
+      <c r="F146" t="s">
+        <v>40</v>
+      </c>
+      <c r="J146" t="s">
+        <v>93</v>
+      </c>
+      <c r="K146" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A147" t="s">
+        <v>94</v>
+      </c>
+      <c r="B147" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="2">
+        <v>42889</v>
+      </c>
+      <c r="D147" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="E147" t="s">
+        <v>8</v>
+      </c>
+      <c r="F147" t="s">
+        <v>9</v>
+      </c>
+      <c r="J147" t="s">
+        <v>93</v>
+      </c>
+      <c r="K147" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A148" t="s">
+        <v>49</v>
+      </c>
+      <c r="B148" t="s">
+        <v>47</v>
+      </c>
+      <c r="C148" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D148" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
+        <v>40</v>
+      </c>
+      <c r="J148" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A149" t="s">
+        <v>96</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D149" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="E149" t="s">
+        <v>8</v>
+      </c>
+      <c r="F149" t="s">
+        <v>40</v>
+      </c>
+      <c r="J149" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A150" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D150" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>40</v>
+      </c>
+      <c r="J150" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A151" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D151" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151" t="s">
+        <v>40</v>
+      </c>
+      <c r="J151" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D152" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E152" t="s">
+        <v>8</v>
+      </c>
+      <c r="F152" t="s">
+        <v>40</v>
+      </c>
+      <c r="J152" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D153" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="E153" t="s">
+        <v>8</v>
+      </c>
+      <c r="F153" t="s">
+        <v>40</v>
+      </c>
+      <c r="J153" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A154" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" t="s">
+        <v>19</v>
+      </c>
+      <c r="C154" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D154" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154" t="s">
+        <v>40</v>
+      </c>
+      <c r="J154" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A155" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155" t="s">
+        <v>19</v>
+      </c>
+      <c r="C155" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D155" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155" t="s">
+        <v>40</v>
+      </c>
+      <c r="J155" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A156" t="s">
+        <v>52</v>
+      </c>
+      <c r="B156" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D156" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>40</v>
+      </c>
+      <c r="J156" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A157" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D157" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E157" t="s">
+        <v>8</v>
+      </c>
+      <c r="F157" t="s">
+        <v>40</v>
+      </c>
+      <c r="J157" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A158" t="s">
+        <v>98</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" s="2">
+        <v>43024</v>
+      </c>
+      <c r="D158" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="E158" t="s">
+        <v>8</v>
+      </c>
+      <c r="F158" t="s">
+        <v>40</v>
+      </c>
+      <c r="J158" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A159" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="2">
+        <v>43017</v>
+      </c>
+      <c r="D159" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E159" t="s">
+        <v>8</v>
+      </c>
+      <c r="F159" t="s">
+        <v>40</v>
+      </c>
+      <c r="J159" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A160" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160" s="2">
+        <v>43017</v>
+      </c>
+      <c r="D160" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E160" t="s">
+        <v>8</v>
+      </c>
+      <c r="F160" t="s">
+        <v>40</v>
+      </c>
+      <c r="J160" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A161" t="s">
+        <v>60</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="2">
+        <v>43017</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161" t="s">
+        <v>40</v>
+      </c>
+      <c r="J161" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A162" t="s">
+        <v>99</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162" s="2">
+        <v>43010</v>
+      </c>
+      <c r="D162" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>40</v>
+      </c>
+      <c r="J162" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2622,6 +4781,7 @@
     <sortCondition ref="D2:D11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452680B9-3836-4937-B4E2-1396805973D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B11B71-D2EE-42F8-8199-F4EF983F5311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="2110" yWindow="2110" windowWidth="13685" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="observations" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="115">
   <si>
     <t>taxon</t>
   </si>
@@ -329,6 +329,48 @@
   </si>
   <si>
     <t>botanistsfieldnotes.com/2017/10/</t>
+  </si>
+  <si>
+    <t>sandhill crane</t>
+  </si>
+  <si>
+    <t>approximate: "this afternoon"</t>
+  </si>
+  <si>
+    <t>botanistsfieldnotes.com</t>
+  </si>
+  <si>
+    <t>Otis Avenue [?]</t>
+  </si>
+  <si>
+    <t>golden-winged warbler</t>
+  </si>
+  <si>
+    <t>location?</t>
+  </si>
+  <si>
+    <t>no time given</t>
+  </si>
+  <si>
+    <t>no time given: "morning"</t>
+  </si>
+  <si>
+    <t>great-crested flycatcher</t>
+  </si>
+  <si>
+    <t>oriole</t>
+  </si>
+  <si>
+    <t>red-tailed hawk</t>
+  </si>
+  <si>
+    <t>Otis</t>
+  </si>
+  <si>
+    <t>cardinals</t>
+  </si>
+  <si>
+    <t>Downers Grove [Lee and Grant]</t>
   </si>
 </sst>
 </file>
@@ -705,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K162"/>
+  <dimension ref="A1:K277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="A163" sqref="A163"/>
+    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F273" sqref="F273:F277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -4729,7 +4771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -4752,7 +4794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A162" t="s">
         <v>99</v>
       </c>
@@ -4773,6 +4815,2240 @@
       </c>
       <c r="J162" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A163" t="s">
+        <v>51</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D163" s="3">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F163" t="s">
+        <v>40</v>
+      </c>
+      <c r="J163" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D164" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F164" t="s">
+        <v>40</v>
+      </c>
+      <c r="J164" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A165" t="s">
+        <v>60</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F165" t="s">
+        <v>40</v>
+      </c>
+      <c r="J165" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A166" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C166" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D166" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F166" t="s">
+        <v>40</v>
+      </c>
+      <c r="J166" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D167" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F167" t="s">
+        <v>40</v>
+      </c>
+      <c r="J167" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D168" s="3">
+        <v>0.28472222222222221</v>
+      </c>
+      <c r="F168" t="s">
+        <v>40</v>
+      </c>
+      <c r="J168" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D169" s="3">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="F169" t="s">
+        <v>40</v>
+      </c>
+      <c r="J169" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170" s="2">
+        <v>43178</v>
+      </c>
+      <c r="D170" s="3">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="F170" t="s">
+        <v>40</v>
+      </c>
+      <c r="J170" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A171" t="s">
+        <v>24</v>
+      </c>
+      <c r="B171" t="s">
+        <v>19</v>
+      </c>
+      <c r="C171" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D171" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F171" t="s">
+        <v>26</v>
+      </c>
+      <c r="J171" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>19</v>
+      </c>
+      <c r="C172" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D172" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F172" t="s">
+        <v>26</v>
+      </c>
+      <c r="J172" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>19</v>
+      </c>
+      <c r="C173" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D173" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F173" t="s">
+        <v>26</v>
+      </c>
+      <c r="J173" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D174" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F174" t="s">
+        <v>26</v>
+      </c>
+      <c r="J174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A175" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" t="s">
+        <v>19</v>
+      </c>
+      <c r="C175" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F175" t="s">
+        <v>26</v>
+      </c>
+      <c r="J175" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A176" t="s">
+        <v>101</v>
+      </c>
+      <c r="B176" t="s">
+        <v>19</v>
+      </c>
+      <c r="C176" s="2">
+        <v>43177</v>
+      </c>
+      <c r="D176" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F176" t="s">
+        <v>9</v>
+      </c>
+      <c r="J176" t="s">
+        <v>103</v>
+      </c>
+      <c r="K176" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D177" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F177" t="s">
+        <v>9</v>
+      </c>
+      <c r="J177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A178" t="s">
+        <v>51</v>
+      </c>
+      <c r="B178" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D178" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F178" t="s">
+        <v>40</v>
+      </c>
+      <c r="J178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A179" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" t="s">
+        <v>19</v>
+      </c>
+      <c r="C179" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D179" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F179" t="s">
+        <v>40</v>
+      </c>
+      <c r="J179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A180" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" t="s">
+        <v>19</v>
+      </c>
+      <c r="C180" s="2">
+        <v>43171</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F180" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A181" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D181" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F181" t="s">
+        <v>26</v>
+      </c>
+      <c r="J181" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A182" t="s">
+        <v>52</v>
+      </c>
+      <c r="B182" t="s">
+        <v>19</v>
+      </c>
+      <c r="C182" s="2">
+        <v>43170</v>
+      </c>
+      <c r="D182" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F182" t="s">
+        <v>26</v>
+      </c>
+      <c r="J182" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D183" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F183" t="s">
+        <v>9</v>
+      </c>
+      <c r="J183" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D184" s="3">
+        <v>0.15625</v>
+      </c>
+      <c r="F184" t="s">
+        <v>9</v>
+      </c>
+      <c r="J184" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A185" t="s">
+        <v>83</v>
+      </c>
+      <c r="B185" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D185" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F185" t="s">
+        <v>40</v>
+      </c>
+      <c r="J185" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A186" t="s">
+        <v>66</v>
+      </c>
+      <c r="B186" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D186" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F186" t="s">
+        <v>40</v>
+      </c>
+      <c r="J186" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A187" t="s">
+        <v>62</v>
+      </c>
+      <c r="B187" t="s">
+        <v>19</v>
+      </c>
+      <c r="C187" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D187" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F187" t="s">
+        <v>40</v>
+      </c>
+      <c r="J187" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A188" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" t="s">
+        <v>19</v>
+      </c>
+      <c r="C188" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D188" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F188" t="s">
+        <v>40</v>
+      </c>
+      <c r="J188" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A189" t="s">
+        <v>52</v>
+      </c>
+      <c r="B189" t="s">
+        <v>19</v>
+      </c>
+      <c r="C189" s="2">
+        <v>43220</v>
+      </c>
+      <c r="D189" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F189" t="s">
+        <v>40</v>
+      </c>
+      <c r="J189" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>19</v>
+      </c>
+      <c r="C190" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D190" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F190" t="s">
+        <v>9</v>
+      </c>
+      <c r="J190" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D191" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F191" t="s">
+        <v>9</v>
+      </c>
+      <c r="J191" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A192" t="s">
+        <v>24</v>
+      </c>
+      <c r="B192" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D192" s="3">
+        <v>0.2638888888888889</v>
+      </c>
+      <c r="F192" t="s">
+        <v>9</v>
+      </c>
+      <c r="J192" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A193" t="s">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193" s="2">
+        <v>43198</v>
+      </c>
+      <c r="D193" s="3">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F193" t="s">
+        <v>26</v>
+      </c>
+      <c r="J193" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A194" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D194" s="3">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F194" t="s">
+        <v>9</v>
+      </c>
+      <c r="J194" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F195" t="s">
+        <v>104</v>
+      </c>
+      <c r="J195" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A196" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" t="s">
+        <v>19</v>
+      </c>
+      <c r="C196" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D196" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F196" t="s">
+        <v>40</v>
+      </c>
+      <c r="J196" t="s">
+        <v>103</v>
+      </c>
+      <c r="K196" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A197" t="s">
+        <v>62</v>
+      </c>
+      <c r="B197" t="s">
+        <v>19</v>
+      </c>
+      <c r="C197" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D197" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F197" t="s">
+        <v>40</v>
+      </c>
+      <c r="J197" t="s">
+        <v>103</v>
+      </c>
+      <c r="K197" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" t="s">
+        <v>47</v>
+      </c>
+      <c r="C198" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D198" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F198" t="s">
+        <v>40</v>
+      </c>
+      <c r="J198" t="s">
+        <v>103</v>
+      </c>
+      <c r="K198" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A199" t="s">
+        <v>56</v>
+      </c>
+      <c r="B199" t="s">
+        <v>19</v>
+      </c>
+      <c r="C199" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D199" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F199" t="s">
+        <v>40</v>
+      </c>
+      <c r="J199" t="s">
+        <v>103</v>
+      </c>
+      <c r="K199" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A200" t="s">
+        <v>60</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F200" t="s">
+        <v>40</v>
+      </c>
+      <c r="J200" t="s">
+        <v>103</v>
+      </c>
+      <c r="K200" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A201" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" t="s">
+        <v>47</v>
+      </c>
+      <c r="C201" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F201" t="s">
+        <v>40</v>
+      </c>
+      <c r="J201" t="s">
+        <v>103</v>
+      </c>
+      <c r="K201" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A202" t="s">
+        <v>52</v>
+      </c>
+      <c r="B202" t="s">
+        <v>19</v>
+      </c>
+      <c r="C202" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D202" s="3">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F202" t="s">
+        <v>40</v>
+      </c>
+      <c r="J202" t="s">
+        <v>103</v>
+      </c>
+      <c r="K202" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>19</v>
+      </c>
+      <c r="C203" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D203" s="3">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F203" t="s">
+        <v>40</v>
+      </c>
+      <c r="J203" t="s">
+        <v>103</v>
+      </c>
+      <c r="K203" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A204" t="s">
+        <v>86</v>
+      </c>
+      <c r="B204" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="2">
+        <v>43193</v>
+      </c>
+      <c r="D204" s="3">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F204" t="s">
+        <v>40</v>
+      </c>
+      <c r="J204" t="s">
+        <v>103</v>
+      </c>
+      <c r="K204" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A205" t="s">
+        <v>72</v>
+      </c>
+      <c r="B205" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D205" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F205" t="s">
+        <v>40</v>
+      </c>
+      <c r="J205" t="s">
+        <v>103</v>
+      </c>
+      <c r="K205" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A206" t="s">
+        <v>92</v>
+      </c>
+      <c r="B206" t="s">
+        <v>19</v>
+      </c>
+      <c r="C206" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D206" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F206" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A207" t="s">
+        <v>59</v>
+      </c>
+      <c r="B207" t="s">
+        <v>19</v>
+      </c>
+      <c r="C207" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D207" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F207" t="s">
+        <v>40</v>
+      </c>
+      <c r="K207" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A208" t="s">
+        <v>33</v>
+      </c>
+      <c r="B208" t="s">
+        <v>19</v>
+      </c>
+      <c r="C208" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D208" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F208" t="s">
+        <v>40</v>
+      </c>
+      <c r="K208" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A209" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" t="s">
+        <v>19</v>
+      </c>
+      <c r="C209" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D209" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F209" t="s">
+        <v>40</v>
+      </c>
+      <c r="K209" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A210" t="s">
+        <v>36</v>
+      </c>
+      <c r="B210" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D210" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F210" t="s">
+        <v>40</v>
+      </c>
+      <c r="K210" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A211" t="s">
+        <v>84</v>
+      </c>
+      <c r="B211" t="s">
+        <v>19</v>
+      </c>
+      <c r="C211" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D211" s="3">
+        <v>0.23263888888888887</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+      <c r="K211" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A212" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D212" s="3">
+        <v>0.23611111111111113</v>
+      </c>
+      <c r="F212" t="s">
+        <v>40</v>
+      </c>
+      <c r="K212" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A213" t="s">
+        <v>72</v>
+      </c>
+      <c r="B213" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D213" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F213" t="s">
+        <v>40</v>
+      </c>
+      <c r="K213" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A214" t="s">
+        <v>62</v>
+      </c>
+      <c r="B214" t="s">
+        <v>19</v>
+      </c>
+      <c r="C214" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D214" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+      <c r="K214" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B215" t="s">
+        <v>19</v>
+      </c>
+      <c r="C215" s="2">
+        <v>43239</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F215" t="s">
+        <v>40</v>
+      </c>
+      <c r="K215" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A216" t="s">
+        <v>58</v>
+      </c>
+      <c r="B216" t="s">
+        <v>47</v>
+      </c>
+      <c r="C216" s="2">
+        <v>43224</v>
+      </c>
+      <c r="D216" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F216" t="s">
+        <v>106</v>
+      </c>
+      <c r="K216" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A217" t="s">
+        <v>36</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="2">
+        <v>43226</v>
+      </c>
+      <c r="D217" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F217" t="s">
+        <v>26</v>
+      </c>
+      <c r="K217" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A218" t="s">
+        <v>109</v>
+      </c>
+      <c r="B218" t="s">
+        <v>19</v>
+      </c>
+      <c r="C218" s="2">
+        <v>43226</v>
+      </c>
+      <c r="D218" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F218" t="s">
+        <v>26</v>
+      </c>
+      <c r="K218" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A219" t="s">
+        <v>35</v>
+      </c>
+      <c r="B219" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="2">
+        <v>43226</v>
+      </c>
+      <c r="D219" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F219" t="s">
+        <v>26</v>
+      </c>
+      <c r="K219" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A220" t="s">
+        <v>66</v>
+      </c>
+      <c r="B220" t="s">
+        <v>19</v>
+      </c>
+      <c r="C220" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F220" t="s">
+        <v>40</v>
+      </c>
+      <c r="K220" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A221" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" t="s">
+        <v>19</v>
+      </c>
+      <c r="C221" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D221" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F221" t="s">
+        <v>40</v>
+      </c>
+      <c r="K221" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A222" t="s">
+        <v>109</v>
+      </c>
+      <c r="B222" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D222" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F222" t="s">
+        <v>40</v>
+      </c>
+      <c r="K222" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A223" t="s">
+        <v>84</v>
+      </c>
+      <c r="B223" t="s">
+        <v>19</v>
+      </c>
+      <c r="C223" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D223" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F223" t="s">
+        <v>40</v>
+      </c>
+      <c r="K223" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A224" t="s">
+        <v>60</v>
+      </c>
+      <c r="B224" t="s">
+        <v>19</v>
+      </c>
+      <c r="C224" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D224" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F224" t="s">
+        <v>40</v>
+      </c>
+      <c r="K224" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A225" t="s">
+        <v>32</v>
+      </c>
+      <c r="B225" t="s">
+        <v>19</v>
+      </c>
+      <c r="C225" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F225" t="s">
+        <v>40</v>
+      </c>
+      <c r="K225" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A226" t="s">
+        <v>79</v>
+      </c>
+      <c r="B226" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F226" t="s">
+        <v>40</v>
+      </c>
+      <c r="K226" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A227" t="s">
+        <v>35</v>
+      </c>
+      <c r="B227" t="s">
+        <v>19</v>
+      </c>
+      <c r="C227" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D227" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F227" t="s">
+        <v>40</v>
+      </c>
+      <c r="K227" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A228" t="s">
+        <v>87</v>
+      </c>
+      <c r="B228" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D228" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F228" t="s">
+        <v>40</v>
+      </c>
+      <c r="K228" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A229" t="s">
+        <v>33</v>
+      </c>
+      <c r="B229" t="s">
+        <v>19</v>
+      </c>
+      <c r="C229" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D229" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F229" t="s">
+        <v>40</v>
+      </c>
+      <c r="K229" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A230" t="s">
+        <v>59</v>
+      </c>
+      <c r="B230" t="s">
+        <v>19</v>
+      </c>
+      <c r="C230" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D230" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F230" t="s">
+        <v>40</v>
+      </c>
+      <c r="K230" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B231" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D231" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F231" t="s">
+        <v>40</v>
+      </c>
+      <c r="K231" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A232" t="s">
+        <v>110</v>
+      </c>
+      <c r="B232" t="s">
+        <v>19</v>
+      </c>
+      <c r="C232" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D232" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F232" t="s">
+        <v>40</v>
+      </c>
+      <c r="K232" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A233" t="s">
+        <v>83</v>
+      </c>
+      <c r="B233" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D233" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F233" t="s">
+        <v>40</v>
+      </c>
+      <c r="K233" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A234" t="s">
+        <v>34</v>
+      </c>
+      <c r="B234" t="s">
+        <v>19</v>
+      </c>
+      <c r="C234" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D234" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F234" t="s">
+        <v>40</v>
+      </c>
+      <c r="K234" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A235" t="s">
+        <v>73</v>
+      </c>
+      <c r="B235" t="s">
+        <v>19</v>
+      </c>
+      <c r="C235" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F235" t="s">
+        <v>40</v>
+      </c>
+      <c r="K235" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A236" t="s">
+        <v>84</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F236" t="s">
+        <v>40</v>
+      </c>
+      <c r="K236" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A237" t="s">
+        <v>92</v>
+      </c>
+      <c r="B237" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D237" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F237" t="s">
+        <v>40</v>
+      </c>
+      <c r="K237" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A238" t="s">
+        <v>111</v>
+      </c>
+      <c r="B238" t="s">
+        <v>19</v>
+      </c>
+      <c r="C238" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D238" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F238" t="s">
+        <v>40</v>
+      </c>
+      <c r="K238" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A239" t="s">
+        <v>89</v>
+      </c>
+      <c r="B239" t="s">
+        <v>19</v>
+      </c>
+      <c r="C239" s="2">
+        <v>43227</v>
+      </c>
+      <c r="D239" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F239" t="s">
+        <v>40</v>
+      </c>
+      <c r="K239" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A240" t="s">
+        <v>71</v>
+      </c>
+      <c r="B240" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F240" t="s">
+        <v>40</v>
+      </c>
+      <c r="K240" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A241" t="s">
+        <v>72</v>
+      </c>
+      <c r="B241" t="s">
+        <v>19</v>
+      </c>
+      <c r="C241" s="2">
+        <v>43266</v>
+      </c>
+      <c r="D241" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F241" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A242" t="s">
+        <v>72</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D242" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F242" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A243" t="s">
+        <v>7</v>
+      </c>
+      <c r="B243" t="s">
+        <v>19</v>
+      </c>
+      <c r="C243" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D243" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F243" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A244" t="s">
+        <v>32</v>
+      </c>
+      <c r="B244" t="s">
+        <v>19</v>
+      </c>
+      <c r="C244" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D244" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F244" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A245" t="s">
+        <v>109</v>
+      </c>
+      <c r="B245" t="s">
+        <v>19</v>
+      </c>
+      <c r="C245" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F245" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A246" t="s">
+        <v>71</v>
+      </c>
+      <c r="B246" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D246" s="3">
+        <v>0.22569444444444445</v>
+      </c>
+      <c r="F246" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A247" t="s">
+        <v>58</v>
+      </c>
+      <c r="B247" t="s">
+        <v>47</v>
+      </c>
+      <c r="C247" s="2">
+        <v>43268</v>
+      </c>
+      <c r="D247" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F247" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A248" t="s">
+        <v>58</v>
+      </c>
+      <c r="B248" t="s">
+        <v>47</v>
+      </c>
+      <c r="C248" s="2">
+        <v>43262</v>
+      </c>
+      <c r="D248" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F248" t="s">
+        <v>26</v>
+      </c>
+      <c r="K248" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A249" t="s">
+        <v>7</v>
+      </c>
+      <c r="B249" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D249" s="3">
+        <v>0.24652777777777779</v>
+      </c>
+      <c r="F249" t="s">
+        <v>112</v>
+      </c>
+      <c r="J249" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A250" t="s">
+        <v>71</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" s="2">
+        <v>43257</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="F250" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A251" t="s">
+        <v>13</v>
+      </c>
+      <c r="B251" t="s">
+        <v>19</v>
+      </c>
+      <c r="C251" s="2">
+        <v>44420</v>
+      </c>
+      <c r="D251" s="3">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F251" t="s">
+        <v>112</v>
+      </c>
+      <c r="J251" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A252" t="s">
+        <v>94</v>
+      </c>
+      <c r="B252" t="s">
+        <v>19</v>
+      </c>
+      <c r="C252" s="2">
+        <v>43306</v>
+      </c>
+      <c r="D252" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F252" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A253" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" t="s">
+        <v>22</v>
+      </c>
+      <c r="C253" s="2">
+        <v>43333</v>
+      </c>
+      <c r="D253" s="3">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="F253" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A254" t="s">
+        <v>10</v>
+      </c>
+      <c r="B254" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254" s="2">
+        <v>43334</v>
+      </c>
+      <c r="D254" s="3">
+        <v>0.19444444444444445</v>
+      </c>
+      <c r="F254" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A255" t="s">
+        <v>71</v>
+      </c>
+      <c r="B255" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255" s="2">
+        <v>43330</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F255" t="s">
+        <v>26</v>
+      </c>
+      <c r="K255" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A256" t="s">
+        <v>113</v>
+      </c>
+      <c r="B256" t="s">
+        <v>19</v>
+      </c>
+      <c r="C256" s="2">
+        <v>43319</v>
+      </c>
+      <c r="D256" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F256" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A257" t="s">
+        <v>94</v>
+      </c>
+      <c r="B257" t="s">
+        <v>19</v>
+      </c>
+      <c r="C257" s="2">
+        <v>43319</v>
+      </c>
+      <c r="D257" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F257" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A258" t="s">
+        <v>113</v>
+      </c>
+      <c r="B258" t="s">
+        <v>19</v>
+      </c>
+      <c r="C258" s="2">
+        <v>43318</v>
+      </c>
+      <c r="D258" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F258" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A259" t="s">
+        <v>113</v>
+      </c>
+      <c r="B259" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" s="2">
+        <v>43320</v>
+      </c>
+      <c r="D259" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F259" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A260" t="s">
+        <v>113</v>
+      </c>
+      <c r="B260" t="s">
+        <v>19</v>
+      </c>
+      <c r="C260" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="F260" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A261" t="s">
+        <v>72</v>
+      </c>
+      <c r="B261" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0.20138888888888887</v>
+      </c>
+      <c r="F261" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A262" t="s">
+        <v>96</v>
+      </c>
+      <c r="B262" t="s">
+        <v>19</v>
+      </c>
+      <c r="C262" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D262" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F262" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A263" t="s">
+        <v>73</v>
+      </c>
+      <c r="B263" t="s">
+        <v>19</v>
+      </c>
+      <c r="C263" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D263" s="3">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F263" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A264" t="s">
+        <v>59</v>
+      </c>
+      <c r="B264" t="s">
+        <v>19</v>
+      </c>
+      <c r="C264" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D264" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="F264" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A265" t="s">
+        <v>66</v>
+      </c>
+      <c r="B265" t="s">
+        <v>19</v>
+      </c>
+      <c r="C265" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D265" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="F265" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A266" t="s">
+        <v>92</v>
+      </c>
+      <c r="B266" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D266" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="F266" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A267" t="s">
+        <v>7</v>
+      </c>
+      <c r="B267" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D267" s="3">
+        <v>0.21875</v>
+      </c>
+      <c r="F267" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A268" t="s">
+        <v>60</v>
+      </c>
+      <c r="B268" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D268" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F268" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A269" t="s">
+        <v>92</v>
+      </c>
+      <c r="B269" t="s">
+        <v>19</v>
+      </c>
+      <c r="C269" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D269" s="3">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F269" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A270" t="s">
+        <v>72</v>
+      </c>
+      <c r="B270" t="s">
+        <v>19</v>
+      </c>
+      <c r="C270" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D270" s="3">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F270" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A271" t="s">
+        <v>91</v>
+      </c>
+      <c r="B271" t="s">
+        <v>19</v>
+      </c>
+      <c r="C271" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D271" s="3">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F271" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A272" t="s">
+        <v>52</v>
+      </c>
+      <c r="B272" t="s">
+        <v>19</v>
+      </c>
+      <c r="C272" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D272" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F272" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A273" t="s">
+        <v>84</v>
+      </c>
+      <c r="B273" t="s">
+        <v>19</v>
+      </c>
+      <c r="C273" s="2">
+        <v>43313</v>
+      </c>
+      <c r="D273" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F273" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A274" t="s">
+        <v>96</v>
+      </c>
+      <c r="B274" t="s">
+        <v>19</v>
+      </c>
+      <c r="C274" s="2">
+        <v>43366</v>
+      </c>
+      <c r="D274" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F274" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A275" t="s">
+        <v>11</v>
+      </c>
+      <c r="B275" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275" s="2">
+        <v>43366</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F275" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A276" t="s">
+        <v>94</v>
+      </c>
+      <c r="B276" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" s="2">
+        <v>43366</v>
+      </c>
+      <c r="D276" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F276" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A277" t="s">
+        <v>39</v>
+      </c>
+      <c r="B277" t="s">
+        <v>19</v>
+      </c>
+      <c r="C277" s="2">
+        <v>43366</v>
+      </c>
+      <c r="D277" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="F277" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B11B71-D2EE-42F8-8199-F4EF983F5311}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF0F201-1653-473C-A25C-40A96D90BE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2110" yWindow="2110" windowWidth="13685" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="observations" sheetId="1" r:id="rId1"/>
     <sheet name="reviewedPosts" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">observations!$A$1:$A$336</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="138">
   <si>
     <t>taxon</t>
   </si>
@@ -355,9 +358,6 @@
     <t>no time given: "morning"</t>
   </si>
   <si>
-    <t>great-crested flycatcher</t>
-  </si>
-  <si>
     <t>oriole</t>
   </si>
   <si>
@@ -367,10 +367,82 @@
     <t>Otis</t>
   </si>
   <si>
-    <t>cardinals</t>
-  </si>
-  <si>
     <t>Downers Grove [Lee and Grant]</t>
+  </si>
+  <si>
+    <t>golden-crowned kinglet</t>
+  </si>
+  <si>
+    <t>hairy woodpecker</t>
+  </si>
+  <si>
+    <t>estimated: "this morning</t>
+  </si>
+  <si>
+    <t>http://botanistsfieldnotes.com/2018/11/</t>
+  </si>
+  <si>
+    <t>estimated: "Sunday afternoon"</t>
+  </si>
+  <si>
+    <t>estimated: "Friday on my bike ride home from work"</t>
+  </si>
+  <si>
+    <t>estimated: "Friday morning"</t>
+  </si>
+  <si>
+    <t>estimated: "Thursday morning"</t>
+  </si>
+  <si>
+    <t>estimated: bike ride into work after walking the dog that morningl</t>
+  </si>
+  <si>
+    <t>belted kingfisher</t>
+  </si>
+  <si>
+    <t>estimated: on walk out in the afternoong</t>
+  </si>
+  <si>
+    <t>time from photo log from that day</t>
+  </si>
+  <si>
+    <t>estimated: after dark</t>
+  </si>
+  <si>
+    <t>black-and-white warbler</t>
+  </si>
+  <si>
+    <t>olive-sided flycatcher</t>
+  </si>
+  <si>
+    <t>estimated: flanking sunset Thursday night</t>
+  </si>
+  <si>
+    <t>time estimaed: morning</t>
+  </si>
+  <si>
+    <t>least flycatcher</t>
+  </si>
+  <si>
+    <t>no particular date provided, but assigned to same date and time where they are mentioned due to context</t>
+  </si>
+  <si>
+    <t>time vague: this week, "sometimes in the mornings, sometimes in the afternoons, sometimes not at all" -- assigned to one date to get a point on map</t>
+  </si>
+  <si>
+    <t>time estimated: "late"</t>
+  </si>
+  <si>
+    <t>time vague: "have been singing this week…"</t>
+  </si>
+  <si>
+    <t>time and date unspecified: "have been singing this week…" -- assigned to one morning to get a point on the map</t>
+  </si>
+  <si>
+    <t>time unspecified: morning</t>
+  </si>
+  <si>
+    <t>time inferred: evening, just after dark, backyard</t>
   </si>
 </sst>
 </file>
@@ -381,7 +453,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +476,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -422,10 +502,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -433,8 +514,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -747,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K277"/>
+  <dimension ref="A1:K336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F273" sqref="F273:F277"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5726,6 +5809,9 @@
       <c r="F206" t="s">
         <v>40</v>
       </c>
+      <c r="J206" t="s">
+        <v>103</v>
+      </c>
       <c r="K206" t="s">
         <v>77</v>
       </c>
@@ -5746,6 +5832,9 @@
       <c r="F207" t="s">
         <v>40</v>
       </c>
+      <c r="J207" t="s">
+        <v>103</v>
+      </c>
       <c r="K207" t="s">
         <v>77</v>
       </c>
@@ -5766,6 +5855,9 @@
       <c r="F208" t="s">
         <v>40</v>
       </c>
+      <c r="J208" t="s">
+        <v>103</v>
+      </c>
       <c r="K208" t="s">
         <v>77</v>
       </c>
@@ -5786,6 +5878,9 @@
       <c r="F209" t="s">
         <v>40</v>
       </c>
+      <c r="J209" t="s">
+        <v>103</v>
+      </c>
       <c r="K209" t="s">
         <v>77</v>
       </c>
@@ -5806,6 +5901,9 @@
       <c r="F210" t="s">
         <v>40</v>
       </c>
+      <c r="J210" t="s">
+        <v>103</v>
+      </c>
       <c r="K210" t="s">
         <v>77</v>
       </c>
@@ -5826,6 +5924,9 @@
       <c r="F211" t="s">
         <v>40</v>
       </c>
+      <c r="J211" t="s">
+        <v>103</v>
+      </c>
       <c r="K211" t="s">
         <v>77</v>
       </c>
@@ -5846,6 +5947,9 @@
       <c r="F212" t="s">
         <v>40</v>
       </c>
+      <c r="J212" t="s">
+        <v>103</v>
+      </c>
       <c r="K212" t="s">
         <v>77</v>
       </c>
@@ -5866,6 +5970,9 @@
       <c r="F213" t="s">
         <v>40</v>
       </c>
+      <c r="J213" t="s">
+        <v>103</v>
+      </c>
       <c r="K213" t="s">
         <v>77</v>
       </c>
@@ -5886,6 +5993,9 @@
       <c r="F214" t="s">
         <v>40</v>
       </c>
+      <c r="J214" t="s">
+        <v>103</v>
+      </c>
       <c r="K214" t="s">
         <v>77</v>
       </c>
@@ -5906,6 +6016,9 @@
       <c r="F215" t="s">
         <v>40</v>
       </c>
+      <c r="J215" t="s">
+        <v>103</v>
+      </c>
       <c r="K215" t="s">
         <v>77</v>
       </c>
@@ -5926,6 +6039,9 @@
       <c r="F216" t="s">
         <v>106</v>
       </c>
+      <c r="J216" t="s">
+        <v>103</v>
+      </c>
       <c r="K216" t="s">
         <v>107</v>
       </c>
@@ -5946,13 +6062,16 @@
       <c r="F217" t="s">
         <v>26</v>
       </c>
+      <c r="J217" t="s">
+        <v>103</v>
+      </c>
       <c r="K217" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A218" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B218" t="s">
         <v>19</v>
@@ -5965,6 +6084,9 @@
       </c>
       <c r="F218" t="s">
         <v>26</v>
+      </c>
+      <c r="J218" t="s">
+        <v>103</v>
       </c>
       <c r="K218" t="s">
         <v>108</v>
@@ -5986,6 +6108,9 @@
       <c r="F219" t="s">
         <v>26</v>
       </c>
+      <c r="J219" t="s">
+        <v>103</v>
+      </c>
       <c r="K219" t="s">
         <v>108</v>
       </c>
@@ -6006,6 +6131,9 @@
       <c r="F220" t="s">
         <v>40</v>
       </c>
+      <c r="J220" t="s">
+        <v>103</v>
+      </c>
       <c r="K220" t="s">
         <v>77</v>
       </c>
@@ -6026,13 +6154,16 @@
       <c r="F221" t="s">
         <v>40</v>
       </c>
+      <c r="J221" t="s">
+        <v>103</v>
+      </c>
       <c r="K221" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A222" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
@@ -6045,6 +6176,9 @@
       </c>
       <c r="F222" t="s">
         <v>40</v>
+      </c>
+      <c r="J222" t="s">
+        <v>103</v>
       </c>
       <c r="K222" t="s">
         <v>77</v>
@@ -6066,6 +6200,9 @@
       <c r="F223" t="s">
         <v>40</v>
       </c>
+      <c r="J223" t="s">
+        <v>103</v>
+      </c>
       <c r="K223" t="s">
         <v>77</v>
       </c>
@@ -6086,6 +6223,9 @@
       <c r="F224" t="s">
         <v>40</v>
       </c>
+      <c r="J224" t="s">
+        <v>103</v>
+      </c>
       <c r="K224" t="s">
         <v>77</v>
       </c>
@@ -6106,6 +6246,9 @@
       <c r="F225" t="s">
         <v>40</v>
       </c>
+      <c r="J225" t="s">
+        <v>103</v>
+      </c>
       <c r="K225" t="s">
         <v>77</v>
       </c>
@@ -6126,6 +6269,9 @@
       <c r="F226" t="s">
         <v>40</v>
       </c>
+      <c r="J226" t="s">
+        <v>103</v>
+      </c>
       <c r="K226" t="s">
         <v>77</v>
       </c>
@@ -6146,6 +6292,9 @@
       <c r="F227" t="s">
         <v>40</v>
       </c>
+      <c r="J227" t="s">
+        <v>103</v>
+      </c>
       <c r="K227" t="s">
         <v>77</v>
       </c>
@@ -6166,6 +6315,9 @@
       <c r="F228" t="s">
         <v>40</v>
       </c>
+      <c r="J228" t="s">
+        <v>103</v>
+      </c>
       <c r="K228" t="s">
         <v>77</v>
       </c>
@@ -6186,6 +6338,9 @@
       <c r="F229" t="s">
         <v>40</v>
       </c>
+      <c r="J229" t="s">
+        <v>103</v>
+      </c>
       <c r="K229" t="s">
         <v>77</v>
       </c>
@@ -6206,6 +6361,9 @@
       <c r="F230" t="s">
         <v>40</v>
       </c>
+      <c r="J230" t="s">
+        <v>103</v>
+      </c>
       <c r="K230" t="s">
         <v>77</v>
       </c>
@@ -6226,13 +6384,16 @@
       <c r="F231" t="s">
         <v>40</v>
       </c>
+      <c r="J231" t="s">
+        <v>103</v>
+      </c>
       <c r="K231" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A232" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B232" t="s">
         <v>19</v>
@@ -6245,6 +6406,9 @@
       </c>
       <c r="F232" t="s">
         <v>40</v>
+      </c>
+      <c r="J232" t="s">
+        <v>103</v>
       </c>
       <c r="K232" t="s">
         <v>77</v>
@@ -6266,6 +6430,9 @@
       <c r="F233" t="s">
         <v>40</v>
       </c>
+      <c r="J233" t="s">
+        <v>103</v>
+      </c>
       <c r="K233" t="s">
         <v>77</v>
       </c>
@@ -6286,6 +6453,9 @@
       <c r="F234" t="s">
         <v>40</v>
       </c>
+      <c r="J234" t="s">
+        <v>103</v>
+      </c>
       <c r="K234" t="s">
         <v>77</v>
       </c>
@@ -6306,6 +6476,9 @@
       <c r="F235" t="s">
         <v>40</v>
       </c>
+      <c r="J235" t="s">
+        <v>103</v>
+      </c>
       <c r="K235" t="s">
         <v>77</v>
       </c>
@@ -6326,6 +6499,9 @@
       <c r="F236" t="s">
         <v>40</v>
       </c>
+      <c r="J236" t="s">
+        <v>103</v>
+      </c>
       <c r="K236" t="s">
         <v>77</v>
       </c>
@@ -6346,13 +6522,16 @@
       <c r="F237" t="s">
         <v>40</v>
       </c>
+      <c r="J237" t="s">
+        <v>103</v>
+      </c>
       <c r="K237" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A238" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B238" t="s">
         <v>19</v>
@@ -6365,6 +6544,9 @@
       </c>
       <c r="F238" t="s">
         <v>40</v>
+      </c>
+      <c r="J238" t="s">
+        <v>103</v>
       </c>
       <c r="K238" t="s">
         <v>77</v>
@@ -6386,6 +6568,9 @@
       <c r="F239" t="s">
         <v>40</v>
       </c>
+      <c r="J239" t="s">
+        <v>103</v>
+      </c>
       <c r="K239" t="s">
         <v>77</v>
       </c>
@@ -6406,6 +6591,9 @@
       <c r="F240" t="s">
         <v>40</v>
       </c>
+      <c r="J240" t="s">
+        <v>103</v>
+      </c>
       <c r="K240" t="s">
         <v>108</v>
       </c>
@@ -6426,6 +6614,9 @@
       <c r="F241" t="s">
         <v>40</v>
       </c>
+      <c r="J241" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A242" t="s">
@@ -6443,6 +6634,9 @@
       <c r="F242" t="s">
         <v>26</v>
       </c>
+      <c r="J242" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A243" t="s">
@@ -6460,6 +6654,9 @@
       <c r="F243" t="s">
         <v>26</v>
       </c>
+      <c r="J243" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A244" t="s">
@@ -6477,10 +6674,13 @@
       <c r="F244" t="s">
         <v>26</v>
       </c>
+      <c r="J244" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A245" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B245" t="s">
         <v>19</v>
@@ -6493,6 +6693,9 @@
       </c>
       <c r="F245" t="s">
         <v>26</v>
+      </c>
+      <c r="J245" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.75">
@@ -6511,6 +6714,9 @@
       <c r="F246" t="s">
         <v>26</v>
       </c>
+      <c r="J246" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A247" t="s">
@@ -6528,6 +6734,9 @@
       <c r="F247" t="s">
         <v>26</v>
       </c>
+      <c r="J247" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A248" t="s">
@@ -6545,6 +6754,9 @@
       <c r="F248" t="s">
         <v>26</v>
       </c>
+      <c r="J248" t="s">
+        <v>103</v>
+      </c>
       <c r="K248" t="s">
         <v>108</v>
       </c>
@@ -6563,7 +6775,7 @@
         <v>0.24652777777777779</v>
       </c>
       <c r="F249" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J249" t="s">
         <v>37</v>
@@ -6585,6 +6797,9 @@
       <c r="F250" t="s">
         <v>26</v>
       </c>
+      <c r="J250" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A251" t="s">
@@ -6600,7 +6815,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="F251" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J251" t="s">
         <v>37</v>
@@ -6620,7 +6835,10 @@
         <v>0.82291666666666663</v>
       </c>
       <c r="F252" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="J252" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.75">
@@ -6639,6 +6857,9 @@
       <c r="F253" t="s">
         <v>82</v>
       </c>
+      <c r="J253" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A254" t="s">
@@ -6654,7 +6875,10 @@
         <v>0.19444444444444445</v>
       </c>
       <c r="F254" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+      <c r="J254" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.75">
@@ -6673,13 +6897,16 @@
       <c r="F255" t="s">
         <v>26</v>
       </c>
+      <c r="J255" t="s">
+        <v>103</v>
+      </c>
       <c r="K255" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A256" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B256" t="s">
         <v>19</v>
@@ -6691,10 +6918,13 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="F256" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.75">
+        <v>111</v>
+      </c>
+      <c r="J256" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A257" t="s">
         <v>94</v>
       </c>
@@ -6708,12 +6938,15 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="F257" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.75">
+        <v>111</v>
+      </c>
+      <c r="J257" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A258" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B258" t="s">
         <v>19</v>
@@ -6725,12 +6958,15 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="F258" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.75">
+        <v>111</v>
+      </c>
+      <c r="J258" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A259" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B259" t="s">
         <v>19</v>
@@ -6742,12 +6978,15 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="F259" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.75">
+        <v>111</v>
+      </c>
+      <c r="J259" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A260" t="s">
-        <v>113</v>
+        <v>10</v>
       </c>
       <c r="B260" t="s">
         <v>19</v>
@@ -6759,10 +6998,13 @@
         <v>0.19791666666666666</v>
       </c>
       <c r="F260" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.75">
+        <v>111</v>
+      </c>
+      <c r="J260" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A261" t="s">
         <v>72</v>
       </c>
@@ -6776,10 +7018,13 @@
         <v>0.20138888888888887</v>
       </c>
       <c r="F261" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.75">
+        <v>112</v>
+      </c>
+      <c r="J261" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A262" t="s">
         <v>96</v>
       </c>
@@ -6795,8 +7040,11 @@
       <c r="F262" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J262" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A263" t="s">
         <v>73</v>
       </c>
@@ -6812,8 +7060,11 @@
       <c r="F263" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J263" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A264" t="s">
         <v>59</v>
       </c>
@@ -6829,8 +7080,11 @@
       <c r="F264" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J264" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A265" t="s">
         <v>66</v>
       </c>
@@ -6846,8 +7100,11 @@
       <c r="F265" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J265" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A266" t="s">
         <v>92</v>
       </c>
@@ -6863,8 +7120,11 @@
       <c r="F266" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J266" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -6880,8 +7140,11 @@
       <c r="F267" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J267" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -6897,8 +7160,11 @@
       <c r="F268" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J268" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A269" t="s">
         <v>92</v>
       </c>
@@ -6914,8 +7180,11 @@
       <c r="F269" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J269" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A270" t="s">
         <v>72</v>
       </c>
@@ -6931,8 +7200,11 @@
       <c r="F270" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J270" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A271" t="s">
         <v>91</v>
       </c>
@@ -6948,8 +7220,11 @@
       <c r="F271" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J271" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.75">
       <c r="A272" t="s">
         <v>52</v>
       </c>
@@ -6965,8 +7240,11 @@
       <c r="F272" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J272" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A273" t="s">
         <v>84</v>
       </c>
@@ -6982,8 +7260,11 @@
       <c r="F273" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J273" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A274" t="s">
         <v>96</v>
       </c>
@@ -6999,8 +7280,11 @@
       <c r="F274" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J274" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -7016,8 +7300,11 @@
       <c r="F275" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J275" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A276" t="s">
         <v>94</v>
       </c>
@@ -7033,8 +7320,11 @@
       <c r="F276" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="J276" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A277" t="s">
         <v>39</v>
       </c>
@@ -7050,14 +7340,1211 @@
       <c r="F277" t="s">
         <v>40</v>
       </c>
+      <c r="J277" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A278" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" t="s">
+        <v>19</v>
+      </c>
+      <c r="C278" s="2">
+        <v>44427</v>
+      </c>
+      <c r="D278" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F278" t="s">
+        <v>111</v>
+      </c>
+      <c r="J278" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A279" t="s">
+        <v>113</v>
+      </c>
+      <c r="B279" t="s">
+        <v>19</v>
+      </c>
+      <c r="C279" s="2">
+        <v>43421</v>
+      </c>
+      <c r="D279" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F279" t="s">
+        <v>26</v>
+      </c>
+      <c r="J279" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K279" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A280" t="s">
+        <v>16</v>
+      </c>
+      <c r="B280" t="s">
+        <v>19</v>
+      </c>
+      <c r="C280" s="2">
+        <v>43421</v>
+      </c>
+      <c r="D280" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F280" t="s">
+        <v>26</v>
+      </c>
+      <c r="J280" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A281" t="s">
+        <v>114</v>
+      </c>
+      <c r="B281" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="2">
+        <v>43421</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F281" t="s">
+        <v>26</v>
+      </c>
+      <c r="J281" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A282" t="s">
+        <v>10</v>
+      </c>
+      <c r="B282" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282" s="2">
+        <v>44428</v>
+      </c>
+      <c r="D282" s="3">
+        <v>0.22708333333333333</v>
+      </c>
+      <c r="F282" t="s">
+        <v>111</v>
+      </c>
+      <c r="J282" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A283" t="s">
+        <v>10</v>
+      </c>
+      <c r="B283" t="s">
+        <v>19</v>
+      </c>
+      <c r="C283" s="2">
+        <v>43478</v>
+      </c>
+      <c r="D283" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F283" t="s">
+        <v>26</v>
+      </c>
+      <c r="J283" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B284" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284" s="2">
+        <v>43478</v>
+      </c>
+      <c r="D284" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F284" t="s">
+        <v>26</v>
+      </c>
+      <c r="J284" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A285" t="s">
+        <v>10</v>
+      </c>
+      <c r="B285" t="s">
+        <v>19</v>
+      </c>
+      <c r="C285" s="2">
+        <v>43471</v>
+      </c>
+      <c r="D285" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F285" t="s">
+        <v>111</v>
+      </c>
+      <c r="J285" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A286" t="s">
+        <v>17</v>
+      </c>
+      <c r="B286" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="2">
+        <v>43513</v>
+      </c>
+      <c r="D286" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F286" t="s">
+        <v>26</v>
+      </c>
+      <c r="J286" t="s">
+        <v>103</v>
+      </c>
+      <c r="K286" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A287" t="s">
+        <v>32</v>
+      </c>
+      <c r="B287" t="s">
+        <v>19</v>
+      </c>
+      <c r="C287" s="2">
+        <v>43513</v>
+      </c>
+      <c r="D287" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F287" t="s">
+        <v>26</v>
+      </c>
+      <c r="J287" t="s">
+        <v>103</v>
+      </c>
+      <c r="K287" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A288" t="s">
+        <v>50</v>
+      </c>
+      <c r="B288" t="s">
+        <v>47</v>
+      </c>
+      <c r="C288" s="2">
+        <v>43553</v>
+      </c>
+      <c r="D288" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F288" t="s">
+        <v>40</v>
+      </c>
+      <c r="J288" t="s">
+        <v>103</v>
+      </c>
+      <c r="K288" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A289" t="s">
+        <v>87</v>
+      </c>
+      <c r="B289" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289" s="2">
+        <v>43553</v>
+      </c>
+      <c r="D289" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F289" t="s">
+        <v>40</v>
+      </c>
+      <c r="J289" t="s">
+        <v>103</v>
+      </c>
+      <c r="K289" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A290" t="s">
+        <v>13</v>
+      </c>
+      <c r="B290" t="s">
+        <v>19</v>
+      </c>
+      <c r="C290" s="2">
+        <v>44428</v>
+      </c>
+      <c r="D290" s="3">
+        <v>0.23958333333333334</v>
+      </c>
+      <c r="F290" t="s">
+        <v>111</v>
+      </c>
+      <c r="J290" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A291" t="s">
+        <v>59</v>
+      </c>
+      <c r="B291" t="s">
+        <v>19</v>
+      </c>
+      <c r="C291" s="2">
+        <v>43571</v>
+      </c>
+      <c r="D291" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F291" t="s">
+        <v>40</v>
+      </c>
+      <c r="J291" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A292" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292" t="s">
+        <v>19</v>
+      </c>
+      <c r="C292" s="2">
+        <v>43571</v>
+      </c>
+      <c r="D292" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F292" t="s">
+        <v>40</v>
+      </c>
+      <c r="J292" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A293" t="s">
+        <v>33</v>
+      </c>
+      <c r="B293" t="s">
+        <v>19</v>
+      </c>
+      <c r="C293" s="2">
+        <v>43571</v>
+      </c>
+      <c r="D293" s="3">
+        <v>0.28125</v>
+      </c>
+      <c r="F293" t="s">
+        <v>40</v>
+      </c>
+      <c r="J293" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A294" t="s">
+        <v>60</v>
+      </c>
+      <c r="B294" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="2">
+        <v>43571</v>
+      </c>
+      <c r="D294" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F294" t="s">
+        <v>40</v>
+      </c>
+      <c r="J294" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A295" t="s">
+        <v>86</v>
+      </c>
+      <c r="B295" t="s">
+        <v>19</v>
+      </c>
+      <c r="C295" s="2">
+        <v>43571</v>
+      </c>
+      <c r="D295" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F295" t="s">
+        <v>40</v>
+      </c>
+      <c r="J295" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A296" t="s">
+        <v>58</v>
+      </c>
+      <c r="B296" t="s">
+        <v>47</v>
+      </c>
+      <c r="C296" s="2">
+        <v>43573</v>
+      </c>
+      <c r="D296" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F296" t="s">
+        <v>111</v>
+      </c>
+      <c r="J296" t="s">
+        <v>103</v>
+      </c>
+      <c r="K296" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A297" t="s">
+        <v>49</v>
+      </c>
+      <c r="B297" t="s">
+        <v>47</v>
+      </c>
+      <c r="C297" s="2">
+        <v>43573</v>
+      </c>
+      <c r="D297" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F297" t="s">
+        <v>40</v>
+      </c>
+      <c r="J297" t="s">
+        <v>103</v>
+      </c>
+      <c r="K297" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A298" t="s">
+        <v>50</v>
+      </c>
+      <c r="B298" t="s">
+        <v>47</v>
+      </c>
+      <c r="C298" s="2">
+        <v>43573</v>
+      </c>
+      <c r="D298" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F298" t="s">
+        <v>40</v>
+      </c>
+      <c r="J298" t="s">
+        <v>103</v>
+      </c>
+      <c r="K298" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A299" t="s">
+        <v>58</v>
+      </c>
+      <c r="B299" t="s">
+        <v>47</v>
+      </c>
+      <c r="C299" s="2">
+        <v>43573</v>
+      </c>
+      <c r="D299" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F299" t="s">
+        <v>40</v>
+      </c>
+      <c r="J299" t="s">
+        <v>103</v>
+      </c>
+      <c r="K299" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A300" t="s">
+        <v>122</v>
+      </c>
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" s="2">
+        <v>43573</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F300" t="s">
+        <v>40</v>
+      </c>
+      <c r="J300" t="s">
+        <v>103</v>
+      </c>
+      <c r="K300" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A301" t="s">
+        <v>87</v>
+      </c>
+      <c r="B301" t="s">
+        <v>19</v>
+      </c>
+      <c r="C301" s="2">
+        <v>43566</v>
+      </c>
+      <c r="D301" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F301" t="s">
+        <v>40</v>
+      </c>
+      <c r="J301" t="s">
+        <v>103</v>
+      </c>
+      <c r="K301" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A302" t="s">
+        <v>33</v>
+      </c>
+      <c r="B302" t="s">
+        <v>19</v>
+      </c>
+      <c r="C302" s="2">
+        <v>43566</v>
+      </c>
+      <c r="D302" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F302" t="s">
+        <v>40</v>
+      </c>
+      <c r="J302" t="s">
+        <v>103</v>
+      </c>
+      <c r="K302" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A303" t="s">
+        <v>35</v>
+      </c>
+      <c r="B303" t="s">
+        <v>19</v>
+      </c>
+      <c r="C303" s="2">
+        <v>43566</v>
+      </c>
+      <c r="D303" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F303" t="s">
+        <v>40</v>
+      </c>
+      <c r="J303" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A304" t="s">
+        <v>50</v>
+      </c>
+      <c r="B304" t="s">
+        <v>47</v>
+      </c>
+      <c r="C304" s="2">
+        <v>43558</v>
+      </c>
+      <c r="D304" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="F304" t="s">
+        <v>40</v>
+      </c>
+      <c r="J304" t="s">
+        <v>103</v>
+      </c>
+      <c r="K304" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A305" t="s">
+        <v>49</v>
+      </c>
+      <c r="B305" t="s">
+        <v>47</v>
+      </c>
+      <c r="C305" s="2">
+        <v>43558</v>
+      </c>
+      <c r="D305" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="F305" t="s">
+        <v>40</v>
+      </c>
+      <c r="J305" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A306" t="s">
+        <v>49</v>
+      </c>
+      <c r="B306" t="s">
+        <v>47</v>
+      </c>
+      <c r="C306" s="2">
+        <v>43562</v>
+      </c>
+      <c r="D306" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F306" t="s">
+        <v>111</v>
+      </c>
+      <c r="J306" t="s">
+        <v>103</v>
+      </c>
+      <c r="K306" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A307" t="s">
+        <v>52</v>
+      </c>
+      <c r="B307" t="s">
+        <v>19</v>
+      </c>
+      <c r="C307" s="2">
+        <v>44428</v>
+      </c>
+      <c r="D307" s="3">
+        <v>0.25347222222222221</v>
+      </c>
+      <c r="F307" t="s">
+        <v>111</v>
+      </c>
+      <c r="J307" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A308" t="s">
+        <v>7</v>
+      </c>
+      <c r="B308" t="s">
+        <v>19</v>
+      </c>
+      <c r="C308" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D308" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F308" t="s">
+        <v>26</v>
+      </c>
+      <c r="K308" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A309" t="s">
+        <v>127</v>
+      </c>
+      <c r="B309" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D309" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F309" t="s">
+        <v>26</v>
+      </c>
+      <c r="K309" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A310" t="s">
+        <v>72</v>
+      </c>
+      <c r="B310" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D310" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F310" t="s">
+        <v>26</v>
+      </c>
+      <c r="K310" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A311" t="s">
+        <v>58</v>
+      </c>
+      <c r="B311" t="s">
+        <v>47</v>
+      </c>
+      <c r="C311" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D311" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F311" t="s">
+        <v>26</v>
+      </c>
+      <c r="K311" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A312" t="s">
+        <v>50</v>
+      </c>
+      <c r="B312" t="s">
+        <v>47</v>
+      </c>
+      <c r="C312" s="2">
+        <v>43608</v>
+      </c>
+      <c r="D312" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F312" t="s">
+        <v>26</v>
+      </c>
+      <c r="K312" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A313" t="s">
+        <v>72</v>
+      </c>
+      <c r="B313" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D313" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F313" t="s">
+        <v>40</v>
+      </c>
+      <c r="K313" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A314" t="s">
+        <v>92</v>
+      </c>
+      <c r="B314" t="s">
+        <v>19</v>
+      </c>
+      <c r="C314" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D314" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F314" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A315" t="s">
+        <v>84</v>
+      </c>
+      <c r="B315" t="s">
+        <v>19</v>
+      </c>
+      <c r="C315" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D315" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F315" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A316" t="s">
+        <v>75</v>
+      </c>
+      <c r="B316" t="s">
+        <v>19</v>
+      </c>
+      <c r="C316" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D316" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F316" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A317" t="s">
+        <v>130</v>
+      </c>
+      <c r="B317" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D317" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F317" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A318" t="s">
+        <v>105</v>
+      </c>
+      <c r="B318" t="s">
+        <v>19</v>
+      </c>
+      <c r="C318" s="2">
+        <v>43601</v>
+      </c>
+      <c r="D318" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F318" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A319" t="s">
+        <v>73</v>
+      </c>
+      <c r="B319" t="s">
+        <v>19</v>
+      </c>
+      <c r="C319" s="2">
+        <v>43591</v>
+      </c>
+      <c r="D319" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F319" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A320" t="s">
+        <v>105</v>
+      </c>
+      <c r="B320" t="s">
+        <v>19</v>
+      </c>
+      <c r="C320" s="2">
+        <v>43591</v>
+      </c>
+      <c r="D320" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F320" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A321" t="s">
+        <v>89</v>
+      </c>
+      <c r="B321" t="s">
+        <v>19</v>
+      </c>
+      <c r="C321" s="2">
+        <v>43591</v>
+      </c>
+      <c r="D321" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F321" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A322" t="s">
+        <v>88</v>
+      </c>
+      <c r="B322" t="s">
+        <v>19</v>
+      </c>
+      <c r="C322" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D322" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F322" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A323" t="s">
+        <v>79</v>
+      </c>
+      <c r="B323" t="s">
+        <v>19</v>
+      </c>
+      <c r="C323" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D323" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F323" t="s">
+        <v>40</v>
+      </c>
+      <c r="K323" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A324" t="s">
+        <v>126</v>
+      </c>
+      <c r="B324" t="s">
+        <v>19</v>
+      </c>
+      <c r="C324" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D324" s="3">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F324" t="s">
+        <v>40</v>
+      </c>
+      <c r="K324" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A325" t="s">
+        <v>85</v>
+      </c>
+      <c r="B325" t="s">
+        <v>19</v>
+      </c>
+      <c r="C325" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D325" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F325" t="s">
+        <v>40</v>
+      </c>
+      <c r="K325" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A326" t="s">
+        <v>36</v>
+      </c>
+      <c r="B326" t="s">
+        <v>19</v>
+      </c>
+      <c r="C326" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D326" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F326" t="s">
+        <v>40</v>
+      </c>
+      <c r="K326" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A327" t="s">
+        <v>58</v>
+      </c>
+      <c r="B327" t="s">
+        <v>47</v>
+      </c>
+      <c r="C327" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D327" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F327" t="s">
+        <v>40</v>
+      </c>
+      <c r="K327" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A328" t="s">
+        <v>58</v>
+      </c>
+      <c r="B328" t="s">
+        <v>47</v>
+      </c>
+      <c r="C328" s="2">
+        <v>43593</v>
+      </c>
+      <c r="D328" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F328" t="s">
+        <v>40</v>
+      </c>
+      <c r="K328" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A329" t="s">
+        <v>94</v>
+      </c>
+      <c r="B329" t="s">
+        <v>19</v>
+      </c>
+      <c r="C329" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D329" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F329" t="s">
+        <v>111</v>
+      </c>
+      <c r="K329" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A330" t="s">
+        <v>92</v>
+      </c>
+      <c r="B330" t="s">
+        <v>19</v>
+      </c>
+      <c r="C330" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D330" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F330" t="s">
+        <v>40</v>
+      </c>
+      <c r="K330" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A331" t="s">
+        <v>109</v>
+      </c>
+      <c r="B331" t="s">
+        <v>19</v>
+      </c>
+      <c r="C331" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D331" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F331" t="s">
+        <v>40</v>
+      </c>
+      <c r="K331" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A332" t="s">
+        <v>75</v>
+      </c>
+      <c r="B332" t="s">
+        <v>19</v>
+      </c>
+      <c r="C332" s="2">
+        <v>43595</v>
+      </c>
+      <c r="D332" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F332" t="s">
+        <v>40</v>
+      </c>
+      <c r="K332" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A333" t="s">
+        <v>126</v>
+      </c>
+      <c r="B333" t="s">
+        <v>19</v>
+      </c>
+      <c r="C333" s="2">
+        <v>43584</v>
+      </c>
+      <c r="D333" s="3">
+        <v>0.40625</v>
+      </c>
+      <c r="F333" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A334" t="s">
+        <v>75</v>
+      </c>
+      <c r="B334" t="s">
+        <v>19</v>
+      </c>
+      <c r="C334" s="2">
+        <v>43588</v>
+      </c>
+      <c r="D334" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F334" t="s">
+        <v>40</v>
+      </c>
+      <c r="K334" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A335" t="s">
+        <v>36</v>
+      </c>
+      <c r="B335" t="s">
+        <v>19</v>
+      </c>
+      <c r="C335" s="2">
+        <v>43589</v>
+      </c>
+      <c r="D335" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F335" t="s">
+        <v>111</v>
+      </c>
+      <c r="K335" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A336" t="s">
+        <v>7</v>
+      </c>
+      <c r="B336" t="s">
+        <v>19</v>
+      </c>
+      <c r="C336" s="2">
+        <v>43589</v>
+      </c>
+      <c r="D336" s="3">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="F336" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A336" xr:uid="{C7E5F994-3E21-47C1-9550-D67738D7F487}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="C2:C11"/>
     <sortCondition ref="D2:D11"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="J279" r:id="rId1" xr:uid="{ECB5D03D-3001-4371-B59C-1BA63634DB4E}"/>
+    <hyperlink ref="J280:J281" r:id="rId2" display="http://botanistsfieldnotes.com/2018/11/" xr:uid="{2394F684-4340-4B14-8D6E-7FEAF3066A88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF0F201-1653-473C-A25C-40A96D90BE5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C92EFB-5F84-4EAC-B7C3-B7A7EE7A898D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="138">
   <si>
     <t>taxon</t>
   </si>
@@ -830,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K336"/>
+  <dimension ref="A1:K337"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J338" sqref="J338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8531,6 +8531,26 @@
       </c>
       <c r="F336" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A337" t="s">
+        <v>10</v>
+      </c>
+      <c r="B337" t="s">
+        <v>19</v>
+      </c>
+      <c r="C337" s="2">
+        <v>44429</v>
+      </c>
+      <c r="D337" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F337" t="s">
+        <v>111</v>
+      </c>
+      <c r="J337" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C92EFB-5F84-4EAC-B7C3-B7A7EE7A898D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386E6F6-BFD2-47DC-BEC2-2C38DAF3EC73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1675" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="158">
   <si>
     <t>taxon</t>
   </si>
@@ -443,6 +443,66 @@
   </si>
   <si>
     <t>time inferred: evening, just after dark, backyard</t>
+  </si>
+  <si>
+    <t>approximate: "12 hours after thunderstorm"</t>
+  </si>
+  <si>
+    <t>guessing at time: walking with brooklyn on our walk around the block, which I assume was our morning walk.</t>
+  </si>
+  <si>
+    <t>guessing at time: morning, and it would have been b/f work</t>
+  </si>
+  <si>
+    <t>guessing at time: morning ride into work, and I recall the morning, and I don't think I was particularly early into work</t>
+  </si>
+  <si>
+    <t>guessing at time: evening walk with Rachel, and it was light enough to see Carex davisii</t>
+  </si>
+  <si>
+    <t>cicada</t>
+  </si>
+  <si>
+    <t>guessing at time: "late afternoon"</t>
+  </si>
+  <si>
+    <t>"just after sunrise"</t>
+  </si>
+  <si>
+    <t>crickets</t>
+  </si>
+  <si>
+    <t>Mays Lake</t>
+  </si>
+  <si>
+    <t>guessing at time: ride into work</t>
+  </si>
+  <si>
+    <t>Lillstreet art center</t>
+  </si>
+  <si>
+    <t>guessing at time: it was getting dark out, but I recall that we could still see a bit</t>
+  </si>
+  <si>
+    <t>guessing at time: it was a report from Robb Telfer</t>
+  </si>
+  <si>
+    <t>guessing at time: bike ride in</t>
+  </si>
+  <si>
+    <t>bracketing time -- "spring peepers were singing all day"</t>
+  </si>
+  <si>
+    <t>junco</t>
+  </si>
+  <si>
+    <t>guessing at time: afternoon</t>
+  </si>
+  <si>
+    <t>an hour b/f sunset</t>
+  </si>
+  <si>
+    <t>guessing at time -- morning walk w/ dog on a Saturday</t>
   </si>
 </sst>
 </file>
@@ -830,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K337"/>
+  <dimension ref="A1:K383"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J338" sqref="J338"/>
+    <sheetView tabSelected="1" topLeftCell="B364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H382" sqref="H382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8533,7 +8593,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.75">
       <c r="A337" t="s">
         <v>10</v>
       </c>
@@ -8551,6 +8611,872 @@
       </c>
       <c r="J337" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A338" t="s">
+        <v>11</v>
+      </c>
+      <c r="B338" t="s">
+        <v>19</v>
+      </c>
+      <c r="C338" s="2">
+        <v>43639</v>
+      </c>
+      <c r="D338" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F338" t="s">
+        <v>26</v>
+      </c>
+      <c r="K338" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A339" t="s">
+        <v>58</v>
+      </c>
+      <c r="B339" t="s">
+        <v>47</v>
+      </c>
+      <c r="C339" s="2">
+        <v>43631</v>
+      </c>
+      <c r="D339" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F339" t="s">
+        <v>111</v>
+      </c>
+      <c r="K339" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A340" t="s">
+        <v>71</v>
+      </c>
+      <c r="B340" t="s">
+        <v>19</v>
+      </c>
+      <c r="C340" s="2">
+        <v>43633</v>
+      </c>
+      <c r="D340" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F340" t="s">
+        <v>26</v>
+      </c>
+      <c r="K340" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A341" t="s">
+        <v>84</v>
+      </c>
+      <c r="B341" t="s">
+        <v>19</v>
+      </c>
+      <c r="C341" s="2">
+        <v>43633</v>
+      </c>
+      <c r="D341" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F341" t="s">
+        <v>26</v>
+      </c>
+      <c r="K341" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A342" t="s">
+        <v>72</v>
+      </c>
+      <c r="B342" t="s">
+        <v>19</v>
+      </c>
+      <c r="C342" s="2">
+        <v>43633</v>
+      </c>
+      <c r="D342" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F342" t="s">
+        <v>26</v>
+      </c>
+      <c r="K342" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A343" t="s">
+        <v>32</v>
+      </c>
+      <c r="B343" t="s">
+        <v>19</v>
+      </c>
+      <c r="C343" s="2">
+        <v>43633</v>
+      </c>
+      <c r="D343" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F343" t="s">
+        <v>26</v>
+      </c>
+      <c r="K343" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A344" t="s">
+        <v>75</v>
+      </c>
+      <c r="B344" t="s">
+        <v>19</v>
+      </c>
+      <c r="C344" s="2">
+        <v>43633</v>
+      </c>
+      <c r="D344" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F344" t="s">
+        <v>26</v>
+      </c>
+      <c r="K344" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A345" t="s">
+        <v>75</v>
+      </c>
+      <c r="B345" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D345" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F345" t="s">
+        <v>40</v>
+      </c>
+      <c r="K345" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A346" t="s">
+        <v>72</v>
+      </c>
+      <c r="B346" t="s">
+        <v>19</v>
+      </c>
+      <c r="C346" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D346" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F346" t="s">
+        <v>40</v>
+      </c>
+      <c r="K346" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A347" t="s">
+        <v>71</v>
+      </c>
+      <c r="B347" t="s">
+        <v>19</v>
+      </c>
+      <c r="C347" s="2">
+        <v>43623</v>
+      </c>
+      <c r="D347" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F347" t="s">
+        <v>40</v>
+      </c>
+      <c r="K347" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A348" t="s">
+        <v>11</v>
+      </c>
+      <c r="B348" t="s">
+        <v>19</v>
+      </c>
+      <c r="C348" s="2">
+        <v>43630</v>
+      </c>
+      <c r="D348" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F348" t="s">
+        <v>26</v>
+      </c>
+      <c r="K348" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A349" t="s">
+        <v>143</v>
+      </c>
+      <c r="B349" t="s">
+        <v>22</v>
+      </c>
+      <c r="C349" s="2">
+        <v>43647</v>
+      </c>
+      <c r="D349" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F349" t="s">
+        <v>111</v>
+      </c>
+      <c r="K349" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A350" t="s">
+        <v>72</v>
+      </c>
+      <c r="B350" t="s">
+        <v>19</v>
+      </c>
+      <c r="C350" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D350" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F350" t="s">
+        <v>40</v>
+      </c>
+      <c r="K350" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A351" t="s">
+        <v>92</v>
+      </c>
+      <c r="B351" t="s">
+        <v>19</v>
+      </c>
+      <c r="C351" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D351" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F351" t="s">
+        <v>40</v>
+      </c>
+      <c r="K351" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A352" t="s">
+        <v>7</v>
+      </c>
+      <c r="B352" t="s">
+        <v>19</v>
+      </c>
+      <c r="C352" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D352" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F352" t="s">
+        <v>40</v>
+      </c>
+      <c r="K352" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A353" t="s">
+        <v>12</v>
+      </c>
+      <c r="B353" t="s">
+        <v>19</v>
+      </c>
+      <c r="C353" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D353" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F353" t="s">
+        <v>40</v>
+      </c>
+      <c r="K353" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A354" t="s">
+        <v>71</v>
+      </c>
+      <c r="B354" t="s">
+        <v>19</v>
+      </c>
+      <c r="C354" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D354" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F354" t="s">
+        <v>40</v>
+      </c>
+      <c r="K354" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A355" t="s">
+        <v>16</v>
+      </c>
+      <c r="B355" t="s">
+        <v>19</v>
+      </c>
+      <c r="C355" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D355" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F355" t="s">
+        <v>40</v>
+      </c>
+      <c r="K355" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A356" t="s">
+        <v>59</v>
+      </c>
+      <c r="B356" t="s">
+        <v>19</v>
+      </c>
+      <c r="C356" s="2">
+        <v>43648</v>
+      </c>
+      <c r="D356" s="3">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="F356" t="s">
+        <v>40</v>
+      </c>
+      <c r="K356" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A357" t="s">
+        <v>16</v>
+      </c>
+      <c r="B357" t="s">
+        <v>19</v>
+      </c>
+      <c r="C357" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D357" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F357" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A358" t="s">
+        <v>72</v>
+      </c>
+      <c r="B358" t="s">
+        <v>19</v>
+      </c>
+      <c r="C358" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D358" s="3">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="F358" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A359" t="s">
+        <v>146</v>
+      </c>
+      <c r="B359" t="s">
+        <v>22</v>
+      </c>
+      <c r="C359" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D359" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F359" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A360" t="s">
+        <v>143</v>
+      </c>
+      <c r="B360" t="s">
+        <v>22</v>
+      </c>
+      <c r="C360" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D360" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F360" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A361" t="s">
+        <v>72</v>
+      </c>
+      <c r="B361" t="s">
+        <v>19</v>
+      </c>
+      <c r="C361" s="2">
+        <v>43697</v>
+      </c>
+      <c r="D361" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F361" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A362" t="s">
+        <v>146</v>
+      </c>
+      <c r="B362" t="s">
+        <v>22</v>
+      </c>
+      <c r="C362" s="2">
+        <v>43700</v>
+      </c>
+      <c r="D362" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F362" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A363" t="s">
+        <v>87</v>
+      </c>
+      <c r="B363" t="s">
+        <v>19</v>
+      </c>
+      <c r="C363" s="2">
+        <v>43700</v>
+      </c>
+      <c r="D363" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F363" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A364" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" t="s">
+        <v>19</v>
+      </c>
+      <c r="C364" s="2">
+        <v>43736</v>
+      </c>
+      <c r="D364" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F364" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A365" t="s">
+        <v>72</v>
+      </c>
+      <c r="B365" t="s">
+        <v>19</v>
+      </c>
+      <c r="C365" s="2">
+        <v>43721</v>
+      </c>
+      <c r="D365" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F365" t="s">
+        <v>40</v>
+      </c>
+      <c r="K365" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A366" t="s">
+        <v>146</v>
+      </c>
+      <c r="B366" t="s">
+        <v>22</v>
+      </c>
+      <c r="C366" s="2">
+        <v>43721</v>
+      </c>
+      <c r="D366" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F366" t="s">
+        <v>40</v>
+      </c>
+      <c r="K366" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A367" t="s">
+        <v>21</v>
+      </c>
+      <c r="B367" t="s">
+        <v>22</v>
+      </c>
+      <c r="C367" s="2">
+        <v>43722</v>
+      </c>
+      <c r="D367" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F367" t="s">
+        <v>149</v>
+      </c>
+      <c r="K367" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A368" t="s">
+        <v>51</v>
+      </c>
+      <c r="B368" t="s">
+        <v>19</v>
+      </c>
+      <c r="C368" s="2">
+        <v>43755</v>
+      </c>
+      <c r="D368" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F368" t="s">
+        <v>40</v>
+      </c>
+      <c r="K368" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A369" t="s">
+        <v>146</v>
+      </c>
+      <c r="C369" s="2">
+        <v>43738</v>
+      </c>
+      <c r="D369" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F369" t="s">
+        <v>40</v>
+      </c>
+      <c r="K369" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A370" t="s">
+        <v>50</v>
+      </c>
+      <c r="B370" t="s">
+        <v>47</v>
+      </c>
+      <c r="C370" s="2">
+        <v>43738</v>
+      </c>
+      <c r="D370" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F370" t="s">
+        <v>40</v>
+      </c>
+      <c r="K370" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A371" t="s">
+        <v>50</v>
+      </c>
+      <c r="B371" t="s">
+        <v>47</v>
+      </c>
+      <c r="C371" s="2">
+        <v>43738</v>
+      </c>
+      <c r="D371" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F371" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A372" t="s">
+        <v>50</v>
+      </c>
+      <c r="B372" t="s">
+        <v>47</v>
+      </c>
+      <c r="C372" s="2">
+        <v>43740</v>
+      </c>
+      <c r="D372" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F372" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A373" t="s">
+        <v>51</v>
+      </c>
+      <c r="B373" t="s">
+        <v>19</v>
+      </c>
+      <c r="C373" s="2">
+        <v>43770</v>
+      </c>
+      <c r="D373" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F373" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A374" t="s">
+        <v>154</v>
+      </c>
+      <c r="B374" t="s">
+        <v>19</v>
+      </c>
+      <c r="C374" s="2">
+        <v>43770</v>
+      </c>
+      <c r="D374" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F374" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A375" t="s">
+        <v>7</v>
+      </c>
+      <c r="B375" t="s">
+        <v>19</v>
+      </c>
+      <c r="C375" s="2">
+        <v>43770</v>
+      </c>
+      <c r="D375" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F375" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A376" t="s">
+        <v>11</v>
+      </c>
+      <c r="B376" t="s">
+        <v>19</v>
+      </c>
+      <c r="C376" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D376" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F376" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A377" t="s">
+        <v>101</v>
+      </c>
+      <c r="B377" t="s">
+        <v>19</v>
+      </c>
+      <c r="C377" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D377" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F377" t="s">
+        <v>111</v>
+      </c>
+      <c r="K377" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A378" t="s">
+        <v>16</v>
+      </c>
+      <c r="B378" t="s">
+        <v>19</v>
+      </c>
+      <c r="C378" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D378" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F378" t="s">
+        <v>26</v>
+      </c>
+      <c r="K378" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A379" t="s">
+        <v>114</v>
+      </c>
+      <c r="B379" t="s">
+        <v>19</v>
+      </c>
+      <c r="C379" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D379" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F379" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A380" t="s">
+        <v>32</v>
+      </c>
+      <c r="B380" t="s">
+        <v>19</v>
+      </c>
+      <c r="C380" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D380" s="3">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="F380" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A381" t="s">
+        <v>11</v>
+      </c>
+      <c r="B381" t="s">
+        <v>19</v>
+      </c>
+      <c r="C381" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D381" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F381" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A382" t="s">
+        <v>16</v>
+      </c>
+      <c r="B382" t="s">
+        <v>19</v>
+      </c>
+      <c r="C382" s="2">
+        <v>43816</v>
+      </c>
+      <c r="D382" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F382" t="s">
+        <v>26</v>
+      </c>
+      <c r="K382" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A383" t="s">
+        <v>17</v>
+      </c>
+      <c r="B383" t="s">
+        <v>19</v>
+      </c>
+      <c r="C383" s="2">
+        <v>43816</v>
+      </c>
+      <c r="D383" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F383" t="s">
+        <v>26</v>
+      </c>
+      <c r="K383" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C386E6F6-BFD2-47DC-BEC2-2C38DAF3EC73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03689E-33D8-4656-B601-C1C667491E23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="0" yWindow="2115" windowWidth="10800" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="observations" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="183">
   <si>
     <t>taxon</t>
   </si>
@@ -503,6 +503,81 @@
   </si>
   <si>
     <t>guessing at time -- morning walk w/ dog on a Saturday</t>
+  </si>
+  <si>
+    <t>guessing: evening after walk, but still light enough to see tree trunks. Pinning right around sunset</t>
+  </si>
+  <si>
+    <t>time and date only pinned: "A great horned owl has been calling in our neighborhood."</t>
+  </si>
+  <si>
+    <t>time estimated: morning walk b/f work, early in the pandemic</t>
+  </si>
+  <si>
+    <t>winter wren</t>
+  </si>
+  <si>
+    <t>time estimated: "this afternoon"</t>
+  </si>
+  <si>
+    <t>time estimated: morning walk, one of the first of the pandemic</t>
+  </si>
+  <si>
+    <t>time unspecified, but recorded in field notes as walk starting at 6:50</t>
+  </si>
+  <si>
+    <t>time unspecified: early morning, sitting downstairs reading, everyone quiet by 8:00.</t>
+  </si>
+  <si>
+    <t>sometime after 8, still a morning walk</t>
+  </si>
+  <si>
+    <t>brown creeper</t>
+  </si>
+  <si>
+    <t>hermit thrush</t>
+  </si>
+  <si>
+    <t>time unspecified, but likely to be observations on morning walk with brooklyn, after coffee with rachel</t>
+  </si>
+  <si>
+    <t>timestamp on iNaturalist photo</t>
+  </si>
+  <si>
+    <t>no time, but on morning walk with Rachel and Brooklyn, Sunday</t>
+  </si>
+  <si>
+    <t>"sun has just gone down"</t>
+  </si>
+  <si>
+    <t>timestamp on photo from that walk</t>
+  </si>
+  <si>
+    <t>reported as "what appeared to be a veery," but corrected to hermit thrush in later post</t>
+  </si>
+  <si>
+    <t>time estimated from a few photos on the walk</t>
+  </si>
+  <si>
+    <t>time from field notes</t>
+  </si>
+  <si>
+    <t>flicker</t>
+  </si>
+  <si>
+    <t>posted 4/3, but field notes are clear that this is the 4/2 walk; time from field notebook</t>
+  </si>
+  <si>
+    <t>downy woodpecker</t>
+  </si>
+  <si>
+    <t>Warrenville Rd, near intersection with 355</t>
+  </si>
+  <si>
+    <t>time inferred from train schedule cited in blog post; evening bike ride with David</t>
+  </si>
+  <si>
+    <t>time not specified,but morning, presumably b/f work</t>
   </si>
 </sst>
 </file>
@@ -890,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K383"/>
+  <dimension ref="A1:K457"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B364" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H382" sqref="H382"/>
+    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9477,6 +9552,1405 @@
       </c>
       <c r="K383" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A384" t="s">
+        <v>11</v>
+      </c>
+      <c r="B384" t="s">
+        <v>19</v>
+      </c>
+      <c r="C384" s="2">
+        <v>43858</v>
+      </c>
+      <c r="D384" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F384" t="s">
+        <v>26</v>
+      </c>
+      <c r="K384" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A385" t="s">
+        <v>11</v>
+      </c>
+      <c r="B385" t="s">
+        <v>19</v>
+      </c>
+      <c r="C385" s="2">
+        <v>43875</v>
+      </c>
+      <c r="D385" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="F385" t="s">
+        <v>111</v>
+      </c>
+      <c r="K385" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A386" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" t="s">
+        <v>19</v>
+      </c>
+      <c r="C386" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F386" t="s">
+        <v>26</v>
+      </c>
+      <c r="K386" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A387" t="s">
+        <v>7</v>
+      </c>
+      <c r="B387" t="s">
+        <v>19</v>
+      </c>
+      <c r="C387" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D387" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F387" t="s">
+        <v>26</v>
+      </c>
+      <c r="K387" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A388" t="s">
+        <v>17</v>
+      </c>
+      <c r="B388" t="s">
+        <v>19</v>
+      </c>
+      <c r="C388" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D388" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F388" t="s">
+        <v>26</v>
+      </c>
+      <c r="K388" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A389" t="s">
+        <v>154</v>
+      </c>
+      <c r="B389" t="s">
+        <v>19</v>
+      </c>
+      <c r="C389" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D389" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F389" t="s">
+        <v>26</v>
+      </c>
+      <c r="K389" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A390" t="s">
+        <v>16</v>
+      </c>
+      <c r="B390" t="s">
+        <v>19</v>
+      </c>
+      <c r="C390" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D390" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F390" t="s">
+        <v>26</v>
+      </c>
+      <c r="K390" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A391" t="s">
+        <v>87</v>
+      </c>
+      <c r="B391" t="s">
+        <v>19</v>
+      </c>
+      <c r="C391" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D391" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F391" t="s">
+        <v>26</v>
+      </c>
+      <c r="K391" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A392" t="s">
+        <v>161</v>
+      </c>
+      <c r="B392" t="s">
+        <v>19</v>
+      </c>
+      <c r="C392" s="2">
+        <v>43917</v>
+      </c>
+      <c r="D392" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F392" t="s">
+        <v>26</v>
+      </c>
+      <c r="K392" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A393" t="s">
+        <v>32</v>
+      </c>
+      <c r="B393" t="s">
+        <v>19</v>
+      </c>
+      <c r="C393" s="2">
+        <v>43915</v>
+      </c>
+      <c r="D393" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F393" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A394" t="s">
+        <v>10</v>
+      </c>
+      <c r="B394" t="s">
+        <v>19</v>
+      </c>
+      <c r="C394" s="2">
+        <v>43914</v>
+      </c>
+      <c r="D394" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F394" t="s">
+        <v>40</v>
+      </c>
+      <c r="K394" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A395" t="s">
+        <v>62</v>
+      </c>
+      <c r="B395" t="s">
+        <v>19</v>
+      </c>
+      <c r="C395" s="2">
+        <v>43914</v>
+      </c>
+      <c r="D395" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F395" t="s">
+        <v>40</v>
+      </c>
+      <c r="K395" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A396" t="s">
+        <v>49</v>
+      </c>
+      <c r="B396" t="s">
+        <v>19</v>
+      </c>
+      <c r="C396" s="2">
+        <v>43914</v>
+      </c>
+      <c r="D396" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F396" t="s">
+        <v>40</v>
+      </c>
+      <c r="K396" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A397" t="s">
+        <v>16</v>
+      </c>
+      <c r="B397" t="s">
+        <v>19</v>
+      </c>
+      <c r="C397" s="2">
+        <v>43914</v>
+      </c>
+      <c r="D397" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F397" t="s">
+        <v>40</v>
+      </c>
+      <c r="K397" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A398" t="s">
+        <v>32</v>
+      </c>
+      <c r="B398" t="s">
+        <v>19</v>
+      </c>
+      <c r="C398" s="2">
+        <v>43913</v>
+      </c>
+      <c r="D398" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F398" t="s">
+        <v>26</v>
+      </c>
+      <c r="K398" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A399" t="s">
+        <v>16</v>
+      </c>
+      <c r="B399" t="s">
+        <v>19</v>
+      </c>
+      <c r="C399" s="2">
+        <v>43913</v>
+      </c>
+      <c r="D399" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F399" t="s">
+        <v>26</v>
+      </c>
+      <c r="K399" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A400" t="s">
+        <v>24</v>
+      </c>
+      <c r="B400" t="s">
+        <v>19</v>
+      </c>
+      <c r="C400" s="2">
+        <v>43913</v>
+      </c>
+      <c r="D400" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F400" t="s">
+        <v>26</v>
+      </c>
+      <c r="K400" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A401" t="s">
+        <v>52</v>
+      </c>
+      <c r="B401" t="s">
+        <v>19</v>
+      </c>
+      <c r="C401" s="2">
+        <v>43912</v>
+      </c>
+      <c r="D401" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F401" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A402" t="s">
+        <v>10</v>
+      </c>
+      <c r="B402" t="s">
+        <v>19</v>
+      </c>
+      <c r="C402" s="2">
+        <v>43912</v>
+      </c>
+      <c r="D402" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F402" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A403" t="s">
+        <v>32</v>
+      </c>
+      <c r="B403" t="s">
+        <v>19</v>
+      </c>
+      <c r="C403" s="2">
+        <v>43912</v>
+      </c>
+      <c r="D403" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F403" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A404" t="s">
+        <v>91</v>
+      </c>
+      <c r="B404" t="s">
+        <v>19</v>
+      </c>
+      <c r="C404" s="2">
+        <v>43912</v>
+      </c>
+      <c r="D404" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F404" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A405" t="s">
+        <v>101</v>
+      </c>
+      <c r="B405" t="s">
+        <v>19</v>
+      </c>
+      <c r="C405" s="2">
+        <v>43912</v>
+      </c>
+      <c r="D405" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="F405" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A406" t="s">
+        <v>89</v>
+      </c>
+      <c r="B406" t="s">
+        <v>19</v>
+      </c>
+      <c r="C406" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D406" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F406" t="s">
+        <v>26</v>
+      </c>
+      <c r="K406" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A407" t="s">
+        <v>71</v>
+      </c>
+      <c r="B407" t="s">
+        <v>19</v>
+      </c>
+      <c r="C407" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D407" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F407" t="s">
+        <v>26</v>
+      </c>
+      <c r="K407" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A408" t="s">
+        <v>35</v>
+      </c>
+      <c r="B408" t="s">
+        <v>19</v>
+      </c>
+      <c r="C408" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D408" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F408" t="s">
+        <v>26</v>
+      </c>
+      <c r="K408" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A409" t="s">
+        <v>161</v>
+      </c>
+      <c r="B409" t="s">
+        <v>19</v>
+      </c>
+      <c r="C409" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D409" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F409" t="s">
+        <v>26</v>
+      </c>
+      <c r="K409" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A410" t="s">
+        <v>50</v>
+      </c>
+      <c r="B410" t="s">
+        <v>19</v>
+      </c>
+      <c r="C410" s="2">
+        <v>43949</v>
+      </c>
+      <c r="D410" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F410" t="s">
+        <v>26</v>
+      </c>
+      <c r="K410" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A411" t="s">
+        <v>7</v>
+      </c>
+      <c r="B411" t="s">
+        <v>19</v>
+      </c>
+      <c r="C411" s="2">
+        <v>43950</v>
+      </c>
+      <c r="D411" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F411" t="s">
+        <v>111</v>
+      </c>
+      <c r="K411" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A412" t="s">
+        <v>35</v>
+      </c>
+      <c r="B412" t="s">
+        <v>19</v>
+      </c>
+      <c r="C412" s="2">
+        <v>43950</v>
+      </c>
+      <c r="D412" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F412" t="s">
+        <v>111</v>
+      </c>
+      <c r="K412" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A413" t="s">
+        <v>58</v>
+      </c>
+      <c r="B413" t="s">
+        <v>47</v>
+      </c>
+      <c r="C413" s="2">
+        <v>43950</v>
+      </c>
+      <c r="D413" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="F413" t="s">
+        <v>111</v>
+      </c>
+      <c r="K413" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A414" t="s">
+        <v>167</v>
+      </c>
+      <c r="B414" t="s">
+        <v>19</v>
+      </c>
+      <c r="C414" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D414" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F414" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A415" t="s">
+        <v>32</v>
+      </c>
+      <c r="B415" t="s">
+        <v>19</v>
+      </c>
+      <c r="C415" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D415" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F415" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A416" t="s">
+        <v>34</v>
+      </c>
+      <c r="B416" t="s">
+        <v>19</v>
+      </c>
+      <c r="C416" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D416" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F416" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" t="s">
+        <v>19</v>
+      </c>
+      <c r="C417" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D417" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F417" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A418" t="s">
+        <v>52</v>
+      </c>
+      <c r="B418" t="s">
+        <v>19</v>
+      </c>
+      <c r="C418" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D418" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F418" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A419" t="s">
+        <v>17</v>
+      </c>
+      <c r="B419" t="s">
+        <v>19</v>
+      </c>
+      <c r="C419" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D419" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F419" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A420" t="s">
+        <v>62</v>
+      </c>
+      <c r="B420" t="s">
+        <v>19</v>
+      </c>
+      <c r="C420" s="2">
+        <v>43941</v>
+      </c>
+      <c r="D420" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F420" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A421" t="s">
+        <v>168</v>
+      </c>
+      <c r="B421" t="s">
+        <v>19</v>
+      </c>
+      <c r="C421" s="2">
+        <v>43942</v>
+      </c>
+      <c r="D421" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F421" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A422" t="s">
+        <v>66</v>
+      </c>
+      <c r="B422" t="s">
+        <v>19</v>
+      </c>
+      <c r="C422" s="2">
+        <v>43945</v>
+      </c>
+      <c r="D422" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F422" t="s">
+        <v>111</v>
+      </c>
+      <c r="K422" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A423" t="s">
+        <v>35</v>
+      </c>
+      <c r="B423" t="s">
+        <v>19</v>
+      </c>
+      <c r="C423" s="2">
+        <v>43945</v>
+      </c>
+      <c r="D423" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F423" t="s">
+        <v>111</v>
+      </c>
+      <c r="K423" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A424" t="s">
+        <v>167</v>
+      </c>
+      <c r="B424" t="s">
+        <v>19</v>
+      </c>
+      <c r="C424" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D424" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F424" t="s">
+        <v>26</v>
+      </c>
+      <c r="K424" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A425" t="s">
+        <v>34</v>
+      </c>
+      <c r="B425" t="s">
+        <v>19</v>
+      </c>
+      <c r="C425" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D425" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F425" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A426" t="s">
+        <v>7</v>
+      </c>
+      <c r="B426" t="s">
+        <v>19</v>
+      </c>
+      <c r="C426" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D426" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F426" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A427" t="s">
+        <v>10</v>
+      </c>
+      <c r="B427" t="s">
+        <v>19</v>
+      </c>
+      <c r="C427" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D427" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F427" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A428" t="s">
+        <v>16</v>
+      </c>
+      <c r="B428" t="s">
+        <v>19</v>
+      </c>
+      <c r="C428" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D428" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F428" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A429" t="s">
+        <v>32</v>
+      </c>
+      <c r="B429" t="s">
+        <v>19</v>
+      </c>
+      <c r="C429" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D429" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F429" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A430" t="s">
+        <v>86</v>
+      </c>
+      <c r="B430" t="s">
+        <v>19</v>
+      </c>
+      <c r="C430" s="2">
+        <v>43939</v>
+      </c>
+      <c r="D430" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F430" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A431" t="s">
+        <v>34</v>
+      </c>
+      <c r="B431" t="s">
+        <v>19</v>
+      </c>
+      <c r="C431" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D431" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F431" t="s">
+        <v>26</v>
+      </c>
+      <c r="K431" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A432" t="s">
+        <v>52</v>
+      </c>
+      <c r="B432" t="s">
+        <v>19</v>
+      </c>
+      <c r="C432" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D432" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F432" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A433" t="s">
+        <v>32</v>
+      </c>
+      <c r="B433" t="s">
+        <v>19</v>
+      </c>
+      <c r="C433" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D433" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F433" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A434" t="s">
+        <v>50</v>
+      </c>
+      <c r="B434" t="s">
+        <v>19</v>
+      </c>
+      <c r="C434" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D434" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F434" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A435" t="s">
+        <v>86</v>
+      </c>
+      <c r="B435" t="s">
+        <v>19</v>
+      </c>
+      <c r="C435" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D435" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F435" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A436" t="s">
+        <v>7</v>
+      </c>
+      <c r="B436" t="s">
+        <v>19</v>
+      </c>
+      <c r="C436" s="2">
+        <v>43940</v>
+      </c>
+      <c r="D436" s="3">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="F436" t="s">
+        <v>111</v>
+      </c>
+      <c r="K436" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A437" t="s">
+        <v>52</v>
+      </c>
+      <c r="B437" t="s">
+        <v>19</v>
+      </c>
+      <c r="C437" s="2">
+        <v>43935</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F437" t="s">
+        <v>26</v>
+      </c>
+      <c r="K437" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A438" t="s">
+        <v>7</v>
+      </c>
+      <c r="B438" t="s">
+        <v>19</v>
+      </c>
+      <c r="C438" s="2">
+        <v>43935</v>
+      </c>
+      <c r="D438" s="3">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="F438" t="s">
+        <v>26</v>
+      </c>
+      <c r="K438" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A439" t="s">
+        <v>168</v>
+      </c>
+      <c r="B439" t="s">
+        <v>19</v>
+      </c>
+      <c r="C439" s="2">
+        <v>43936</v>
+      </c>
+      <c r="D439" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F439" t="s">
+        <v>26</v>
+      </c>
+      <c r="K439" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A440" t="s">
+        <v>86</v>
+      </c>
+      <c r="B440" t="s">
+        <v>19</v>
+      </c>
+      <c r="C440" s="2">
+        <v>43936</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F440" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A441" t="s">
+        <v>161</v>
+      </c>
+      <c r="B441" t="s">
+        <v>19</v>
+      </c>
+      <c r="C441" s="2">
+        <v>43930</v>
+      </c>
+      <c r="D441" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F441" t="s">
+        <v>26</v>
+      </c>
+      <c r="K441" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A442" t="s">
+        <v>50</v>
+      </c>
+      <c r="B442" t="s">
+        <v>47</v>
+      </c>
+      <c r="C442" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D442" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F442" t="s">
+        <v>26</v>
+      </c>
+      <c r="K442" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A443" t="s">
+        <v>49</v>
+      </c>
+      <c r="B443" t="s">
+        <v>47</v>
+      </c>
+      <c r="C443" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D443" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F443" t="s">
+        <v>26</v>
+      </c>
+      <c r="K443" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A444" t="s">
+        <v>177</v>
+      </c>
+      <c r="B444" t="s">
+        <v>47</v>
+      </c>
+      <c r="C444" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D444" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F444" t="s">
+        <v>26</v>
+      </c>
+      <c r="K444" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A445" t="s">
+        <v>32</v>
+      </c>
+      <c r="B445" t="s">
+        <v>47</v>
+      </c>
+      <c r="C445" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D445" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F445" t="s">
+        <v>26</v>
+      </c>
+      <c r="K445" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A446" t="s">
+        <v>10</v>
+      </c>
+      <c r="B446" t="s">
+        <v>47</v>
+      </c>
+      <c r="C446" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D446" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F446" t="s">
+        <v>26</v>
+      </c>
+      <c r="K446" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A447" t="s">
+        <v>7</v>
+      </c>
+      <c r="B447" t="s">
+        <v>47</v>
+      </c>
+      <c r="C447" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D447" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F447" t="s">
+        <v>26</v>
+      </c>
+      <c r="K447" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A448" t="s">
+        <v>52</v>
+      </c>
+      <c r="B448" t="s">
+        <v>47</v>
+      </c>
+      <c r="C448" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D448" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F448" t="s">
+        <v>26</v>
+      </c>
+      <c r="K448" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A449" t="s">
+        <v>56</v>
+      </c>
+      <c r="B449" t="s">
+        <v>47</v>
+      </c>
+      <c r="C449" s="2">
+        <v>43929</v>
+      </c>
+      <c r="D449" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F449" t="s">
+        <v>26</v>
+      </c>
+      <c r="K449" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A450" t="s">
+        <v>87</v>
+      </c>
+      <c r="B450" t="s">
+        <v>19</v>
+      </c>
+      <c r="C450" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D450" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F450" t="s">
+        <v>26</v>
+      </c>
+      <c r="K450" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A451" t="s">
+        <v>32</v>
+      </c>
+      <c r="B451" t="s">
+        <v>19</v>
+      </c>
+      <c r="C451" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D451" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F451" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A452" t="s">
+        <v>179</v>
+      </c>
+      <c r="B452" t="s">
+        <v>19</v>
+      </c>
+      <c r="C452" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D452" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F452" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A453" t="s">
+        <v>32</v>
+      </c>
+      <c r="B453" t="s">
+        <v>19</v>
+      </c>
+      <c r="C453" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D453" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F453" t="s">
+        <v>26</v>
+      </c>
+      <c r="K453" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A454" t="s">
+        <v>62</v>
+      </c>
+      <c r="B454" t="s">
+        <v>19</v>
+      </c>
+      <c r="C454" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D454" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F454" t="s">
+        <v>180</v>
+      </c>
+      <c r="K454" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A455" t="s">
+        <v>49</v>
+      </c>
+      <c r="B455" t="s">
+        <v>19</v>
+      </c>
+      <c r="C455" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D455" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F455" t="s">
+        <v>180</v>
+      </c>
+      <c r="K455" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A456" t="s">
+        <v>33</v>
+      </c>
+      <c r="B456" t="s">
+        <v>19</v>
+      </c>
+      <c r="C456" s="2">
+        <v>43923</v>
+      </c>
+      <c r="D456" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="F456" t="s">
+        <v>180</v>
+      </c>
+      <c r="K456" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A457" t="s">
+        <v>167</v>
+      </c>
+      <c r="B457" t="s">
+        <v>19</v>
+      </c>
+      <c r="C457" s="2">
+        <v>43920</v>
+      </c>
+      <c r="D457" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F457" t="s">
+        <v>111</v>
+      </c>
+      <c r="K457" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20377"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03689E-33D8-4656-B601-C1C667491E23}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CCDDF-B82C-473A-BA64-AC8E9D5BEFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2115" windowWidth="10800" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="194">
   <si>
     <t>taxon</t>
   </si>
@@ -578,6 +578,39 @@
   </si>
   <si>
     <t>time not specified,but morning, presumably b/f work</t>
+  </si>
+  <si>
+    <t>time unspecified; morning dog walk</t>
+  </si>
+  <si>
+    <t>chestnut-sided warbler</t>
+  </si>
+  <si>
+    <t>10 a.m. placeholder for daylong observations</t>
+  </si>
+  <si>
+    <t>timestamp on white-breasted nuthatch photo</t>
+  </si>
+  <si>
+    <t>at the end of the day; no time specified</t>
+  </si>
+  <si>
+    <t>time from field notebook</t>
+  </si>
+  <si>
+    <t>… assumed later, as this was observed on the alk out</t>
+  </si>
+  <si>
+    <t>time from photo timestamp</t>
+  </si>
+  <si>
+    <t>northern parula</t>
+  </si>
+  <si>
+    <t>timestamp on white bear sedge photo observed at same time</t>
+  </si>
+  <si>
+    <t>chimney swift</t>
   </si>
 </sst>
 </file>
@@ -965,27 +998,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K457"/>
+  <dimension ref="A1:K488"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A437" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A458" sqref="A458"/>
+    <sheetView tabSelected="1" topLeftCell="A456" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C485" sqref="C485"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.40625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.40625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1020,7 +1053,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1043,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1099,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1089,7 +1122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1135,7 +1168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1204,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1273,7 +1306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1319,7 +1352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +1398,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1388,7 +1421,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1457,7 +1490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
@@ -1486,7 +1519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1515,7 +1548,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1541,7 +1574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1567,7 +1600,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1593,7 +1626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1619,7 +1652,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1645,7 +1678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1668,7 +1701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -1691,7 +1724,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -1714,7 +1747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -1760,7 +1793,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -1783,7 +1816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1839,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1832,7 +1865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1858,7 +1891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -1884,7 +1917,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -1910,7 +1943,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -1936,7 +1969,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -1962,7 +1995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -1988,7 +2021,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2014,7 +2047,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -2040,7 +2073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -2066,7 +2099,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -2092,7 +2125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>33</v>
       </c>
@@ -2118,7 +2151,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2144,7 +2177,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2170,7 +2203,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2196,7 +2229,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -2222,7 +2255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>33</v>
       </c>
@@ -2248,7 +2281,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +2307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2326,7 +2359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -2349,7 +2382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2372,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>33</v>
       </c>
@@ -2395,7 +2428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
@@ -2418,7 +2451,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>60</v>
       </c>
@@ -2441,7 +2474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>52</v>
       </c>
@@ -2464,7 +2497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>35</v>
       </c>
@@ -2487,7 +2520,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2510,7 +2543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2536,7 +2569,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2562,7 +2595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>12</v>
       </c>
@@ -2588,7 +2621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>59</v>
       </c>
@@ -2614,7 +2647,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2673,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -2666,7 +2699,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>59</v>
       </c>
@@ -2692,7 +2725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -2718,7 +2751,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>58</v>
       </c>
@@ -2744,7 +2777,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2770,7 +2803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -2796,7 +2829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>33</v>
       </c>
@@ -2822,7 +2855,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>50</v>
       </c>
@@ -2848,7 +2881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -2874,7 +2907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>59</v>
       </c>
@@ -2900,7 +2933,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -2926,7 +2959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -2952,7 +2985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>50</v>
       </c>
@@ -2978,7 +3011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -3004,7 +3037,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>72</v>
       </c>
@@ -3030,7 +3063,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -3056,7 +3089,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>17</v>
       </c>
@@ -3082,7 +3115,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>73</v>
       </c>
@@ -3108,7 +3141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>75</v>
       </c>
@@ -3134,7 +3167,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>32</v>
       </c>
@@ -3160,7 +3193,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>76</v>
       </c>
@@ -3186,7 +3219,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -3209,7 +3242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>66</v>
       </c>
@@ -3232,7 +3265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>36</v>
       </c>
@@ -3255,7 +3288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>78</v>
       </c>
@@ -3278,7 +3311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>79</v>
       </c>
@@ -3301,7 +3334,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>81</v>
       </c>
@@ -3324,7 +3357,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>62</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -3376,7 +3409,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>36</v>
       </c>
@@ -3402,7 +3435,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>7</v>
       </c>
@@ -3428,7 +3461,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -3454,7 +3487,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -3480,7 +3513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>60</v>
       </c>
@@ -3506,7 +3539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>72</v>
       </c>
@@ -3532,7 +3565,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -3558,7 +3591,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>75</v>
       </c>
@@ -3584,7 +3617,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>84</v>
       </c>
@@ -3610,7 +3643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>12</v>
       </c>
@@ -3636,7 +3669,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>52</v>
       </c>
@@ -3662,7 +3695,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>85</v>
       </c>
@@ -3688,7 +3721,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>86</v>
       </c>
@@ -3714,7 +3747,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>78</v>
       </c>
@@ -3740,7 +3773,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>62</v>
       </c>
@@ -3766,7 +3799,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>33</v>
       </c>
@@ -3792,7 +3825,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -3818,7 +3851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>73</v>
       </c>
@@ -3844,7 +3877,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -3870,7 +3903,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>66</v>
       </c>
@@ -3896,7 +3929,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>12</v>
       </c>
@@ -3922,7 +3955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>49</v>
       </c>
@@ -3948,7 +3981,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>59</v>
       </c>
@@ -3974,7 +4007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>52</v>
       </c>
@@ -4000,7 +4033,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -4026,7 +4059,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>87</v>
       </c>
@@ -4052,7 +4085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -4078,7 +4111,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>84</v>
       </c>
@@ -4104,7 +4137,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>73</v>
       </c>
@@ -4130,7 +4163,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>62</v>
       </c>
@@ -4156,7 +4189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>89</v>
       </c>
@@ -4182,7 +4215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4241,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4231,7 +4264,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>62</v>
       </c>
@@ -4257,7 +4290,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -4283,7 +4316,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>12</v>
       </c>
@@ -4309,7 +4342,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>35</v>
       </c>
@@ -4335,7 +4368,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -4361,7 +4394,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>90</v>
       </c>
@@ -4387,7 +4420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>91</v>
       </c>
@@ -4413,7 +4446,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>59</v>
       </c>
@@ -4439,7 +4472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>33</v>
       </c>
@@ -4465,7 +4498,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>35</v>
       </c>
@@ -4491,7 +4524,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>36</v>
       </c>
@@ -4517,7 +4550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>56</v>
       </c>
@@ -4543,7 +4576,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>89</v>
       </c>
@@ -4569,7 +4602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>72</v>
       </c>
@@ -4592,7 +4625,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -4615,7 +4648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>12</v>
       </c>
@@ -4638,7 +4671,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>36</v>
       </c>
@@ -4664,7 +4697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>94</v>
       </c>
@@ -4690,7 +4723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>49</v>
       </c>
@@ -4713,7 +4746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>96</v>
       </c>
@@ -4736,7 +4769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>35</v>
       </c>
@@ -4759,7 +4792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -4782,7 +4815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>60</v>
       </c>
@@ -4805,7 +4838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>97</v>
       </c>
@@ -4828,7 +4861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -4851,7 +4884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>32</v>
       </c>
@@ -4874,7 +4907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>52</v>
       </c>
@@ -4897,7 +4930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>17</v>
       </c>
@@ -4920,7 +4953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>98</v>
       </c>
@@ -4943,7 +4976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>33</v>
       </c>
@@ -4966,7 +4999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>13</v>
       </c>
@@ -4989,7 +5022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>60</v>
       </c>
@@ -5012,7 +5045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>99</v>
       </c>
@@ -5035,7 +5068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -5055,7 +5088,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5075,7 +5108,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>60</v>
       </c>
@@ -5095,7 +5128,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>49</v>
       </c>
@@ -5115,7 +5148,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>52</v>
       </c>
@@ -5135,7 +5168,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -5155,7 +5188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>7</v>
       </c>
@@ -5175,7 +5208,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -5195,7 +5228,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>24</v>
       </c>
@@ -5215,7 +5248,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>7</v>
       </c>
@@ -5235,7 +5268,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -5255,7 +5288,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -5275,7 +5308,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -5318,7 +5351,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5338,7 +5371,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -5358,7 +5391,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>33</v>
       </c>
@@ -5378,7 +5411,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>62</v>
       </c>
@@ -5398,7 +5431,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -5418,7 +5451,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>52</v>
       </c>
@@ -5438,7 +5471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>10</v>
       </c>
@@ -5458,7 +5491,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>7</v>
       </c>
@@ -5478,7 +5511,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>83</v>
       </c>
@@ -5498,7 +5531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>66</v>
       </c>
@@ -5518,7 +5551,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>62</v>
       </c>
@@ -5538,7 +5571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>33</v>
       </c>
@@ -5558,7 +5591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>52</v>
       </c>
@@ -5578,7 +5611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>10</v>
       </c>
@@ -5598,7 +5631,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>7</v>
       </c>
@@ -5618,7 +5651,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -5638,7 +5671,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -5658,7 +5691,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>7</v>
       </c>
@@ -5678,7 +5711,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -5698,7 +5731,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>33</v>
       </c>
@@ -5721,7 +5754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>62</v>
       </c>
@@ -5744,7 +5777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -5767,7 +5800,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>56</v>
       </c>
@@ -5790,7 +5823,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>60</v>
       </c>
@@ -5813,7 +5846,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>50</v>
       </c>
@@ -5836,7 +5869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>52</v>
       </c>
@@ -5859,7 +5892,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -5882,7 +5915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>86</v>
       </c>
@@ -5905,7 +5938,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>72</v>
       </c>
@@ -5928,7 +5961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>92</v>
       </c>
@@ -5951,7 +5984,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>59</v>
       </c>
@@ -5974,7 +6007,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>33</v>
       </c>
@@ -5997,7 +6030,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>66</v>
       </c>
@@ -6020,7 +6053,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>36</v>
       </c>
@@ -6043,7 +6076,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>84</v>
       </c>
@@ -6066,7 +6099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>105</v>
       </c>
@@ -6089,7 +6122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>72</v>
       </c>
@@ -6112,7 +6145,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>62</v>
       </c>
@@ -6135,7 +6168,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>17</v>
       </c>
@@ -6158,7 +6191,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -6181,7 +6214,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>36</v>
       </c>
@@ -6204,7 +6237,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>75</v>
       </c>
@@ -6227,7 +6260,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>35</v>
       </c>
@@ -6250,7 +6283,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>66</v>
       </c>
@@ -6273,7 +6306,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>91</v>
       </c>
@@ -6296,7 +6329,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>75</v>
       </c>
@@ -6319,7 +6352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>84</v>
       </c>
@@ -6342,7 +6375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>60</v>
       </c>
@@ -6365,7 +6398,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>32</v>
       </c>
@@ -6388,7 +6421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>79</v>
       </c>
@@ -6411,7 +6444,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>35</v>
       </c>
@@ -6434,7 +6467,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>87</v>
       </c>
@@ -6457,7 +6490,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>33</v>
       </c>
@@ -6480,7 +6513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>59</v>
       </c>
@@ -6503,7 +6536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>13</v>
       </c>
@@ -6526,7 +6559,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>109</v>
       </c>
@@ -6549,7 +6582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>83</v>
       </c>
@@ -6572,7 +6605,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>34</v>
       </c>
@@ -6595,7 +6628,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>73</v>
       </c>
@@ -6618,7 +6651,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>84</v>
       </c>
@@ -6641,7 +6674,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>92</v>
       </c>
@@ -6664,7 +6697,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>110</v>
       </c>
@@ -6687,7 +6720,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>89</v>
       </c>
@@ -6710,7 +6743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>71</v>
       </c>
@@ -6733,7 +6766,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>72</v>
       </c>
@@ -6753,7 +6786,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>72</v>
       </c>
@@ -6773,7 +6806,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>7</v>
       </c>
@@ -6793,7 +6826,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -6813,7 +6846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>75</v>
       </c>
@@ -6833,7 +6866,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>71</v>
       </c>
@@ -6853,7 +6886,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>58</v>
       </c>
@@ -6873,7 +6906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>58</v>
       </c>
@@ -6896,7 +6929,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>7</v>
       </c>
@@ -6916,7 +6949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>71</v>
       </c>
@@ -6936,7 +6969,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>13</v>
       </c>
@@ -6956,7 +6989,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>94</v>
       </c>
@@ -6976,7 +7009,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>21</v>
       </c>
@@ -6996,7 +7029,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>10</v>
       </c>
@@ -7016,7 +7049,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>71</v>
       </c>
@@ -7039,7 +7072,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>10</v>
       </c>
@@ -7059,7 +7092,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>94</v>
       </c>
@@ -7079,7 +7112,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>10</v>
       </c>
@@ -7099,7 +7132,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>10</v>
       </c>
@@ -7119,7 +7152,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>10</v>
       </c>
@@ -7139,7 +7172,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>72</v>
       </c>
@@ -7159,7 +7192,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>96</v>
       </c>
@@ -7179,7 +7212,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>73</v>
       </c>
@@ -7199,7 +7232,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>59</v>
       </c>
@@ -7219,7 +7252,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>66</v>
       </c>
@@ -7239,7 +7272,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>92</v>
       </c>
@@ -7259,7 +7292,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>7</v>
       </c>
@@ -7279,7 +7312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>60</v>
       </c>
@@ -7299,7 +7332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>92</v>
       </c>
@@ -7319,7 +7352,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>72</v>
       </c>
@@ -7339,7 +7372,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>91</v>
       </c>
@@ -7359,7 +7392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>52</v>
       </c>
@@ -7379,7 +7412,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>84</v>
       </c>
@@ -7399,7 +7432,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>96</v>
       </c>
@@ -7419,7 +7452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>11</v>
       </c>
@@ -7439,7 +7472,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>94</v>
       </c>
@@ -7459,7 +7492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>39</v>
       </c>
@@ -7479,7 +7512,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>10</v>
       </c>
@@ -7499,7 +7532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>113</v>
       </c>
@@ -7522,7 +7555,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>16</v>
       </c>
@@ -7542,7 +7575,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>114</v>
       </c>
@@ -7562,7 +7595,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>10</v>
       </c>
@@ -7582,7 +7615,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>10</v>
       </c>
@@ -7602,7 +7635,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>16</v>
       </c>
@@ -7622,7 +7655,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>10</v>
       </c>
@@ -7642,7 +7675,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -7665,7 +7698,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -7688,7 +7721,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>50</v>
       </c>
@@ -7711,7 +7744,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>87</v>
       </c>
@@ -7734,7 +7767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>13</v>
       </c>
@@ -7754,7 +7787,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>59</v>
       </c>
@@ -7774,7 +7807,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>7</v>
       </c>
@@ -7794,7 +7827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>33</v>
       </c>
@@ -7814,7 +7847,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>60</v>
       </c>
@@ -7834,7 +7867,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>86</v>
       </c>
@@ -7854,7 +7887,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>58</v>
       </c>
@@ -7877,7 +7910,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>49</v>
       </c>
@@ -7900,7 +7933,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>50</v>
       </c>
@@ -7923,7 +7956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>58</v>
       </c>
@@ -7946,7 +7979,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>122</v>
       </c>
@@ -7969,7 +8002,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>87</v>
       </c>
@@ -7992,7 +8025,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>33</v>
       </c>
@@ -8015,7 +8048,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>35</v>
       </c>
@@ -8035,7 +8068,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>50</v>
       </c>
@@ -8058,7 +8091,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>49</v>
       </c>
@@ -8078,7 +8111,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>49</v>
       </c>
@@ -8101,7 +8134,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>52</v>
       </c>
@@ -8121,7 +8154,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>7</v>
       </c>
@@ -8141,7 +8174,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>127</v>
       </c>
@@ -8161,7 +8194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>72</v>
       </c>
@@ -8181,7 +8214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>58</v>
       </c>
@@ -8201,7 +8234,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>50</v>
       </c>
@@ -8221,7 +8254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>72</v>
       </c>
@@ -8241,7 +8274,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>92</v>
       </c>
@@ -8258,7 +8291,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>84</v>
       </c>
@@ -8275,7 +8308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>75</v>
       </c>
@@ -8292,7 +8325,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>130</v>
       </c>
@@ -8309,7 +8342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>105</v>
       </c>
@@ -8326,7 +8359,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>73</v>
       </c>
@@ -8343,7 +8376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>105</v>
       </c>
@@ -8360,7 +8393,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>89</v>
       </c>
@@ -8377,7 +8410,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>88</v>
       </c>
@@ -8394,7 +8427,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>79</v>
       </c>
@@ -8414,7 +8447,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>126</v>
       </c>
@@ -8434,7 +8467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>85</v>
       </c>
@@ -8454,7 +8487,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>36</v>
       </c>
@@ -8474,7 +8507,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>58</v>
       </c>
@@ -8494,7 +8527,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>58</v>
       </c>
@@ -8514,7 +8547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>94</v>
       </c>
@@ -8534,7 +8567,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>92</v>
       </c>
@@ -8554,7 +8587,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>109</v>
       </c>
@@ -8574,7 +8607,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>75</v>
       </c>
@@ -8594,7 +8627,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>126</v>
       </c>
@@ -8611,7 +8644,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>75</v>
       </c>
@@ -8631,7 +8664,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -8651,7 +8684,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>7</v>
       </c>
@@ -8668,7 +8701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>10</v>
       </c>
@@ -8688,7 +8721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>11</v>
       </c>
@@ -8708,7 +8741,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>58</v>
       </c>
@@ -8728,7 +8761,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>71</v>
       </c>
@@ -8748,7 +8781,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>84</v>
       </c>
@@ -8768,7 +8801,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>72</v>
       </c>
@@ -8788,7 +8821,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>32</v>
       </c>
@@ -8808,7 +8841,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>75</v>
       </c>
@@ -8828,7 +8861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>75</v>
       </c>
@@ -8848,7 +8881,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>72</v>
       </c>
@@ -8868,7 +8901,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>71</v>
       </c>
@@ -8888,7 +8921,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>11</v>
       </c>
@@ -8908,7 +8941,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>143</v>
       </c>
@@ -8928,7 +8961,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>72</v>
       </c>
@@ -8948,7 +8981,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>92</v>
       </c>
@@ -8968,7 +9001,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>7</v>
       </c>
@@ -8988,7 +9021,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>12</v>
       </c>
@@ -9008,7 +9041,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>71</v>
       </c>
@@ -9028,7 +9061,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>16</v>
       </c>
@@ -9048,7 +9081,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -9068,7 +9101,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>16</v>
       </c>
@@ -9085,7 +9118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>72</v>
       </c>
@@ -9102,7 +9135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>146</v>
       </c>
@@ -9119,7 +9152,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>143</v>
       </c>
@@ -9136,7 +9169,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>72</v>
       </c>
@@ -9153,7 +9186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>146</v>
       </c>
@@ -9170,7 +9203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>87</v>
       </c>
@@ -9187,7 +9220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>33</v>
       </c>
@@ -9204,7 +9237,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>72</v>
       </c>
@@ -9224,7 +9257,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>146</v>
       </c>
@@ -9244,7 +9277,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>21</v>
       </c>
@@ -9264,7 +9297,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>51</v>
       </c>
@@ -9284,7 +9317,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>146</v>
       </c>
@@ -9301,7 +9334,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>50</v>
       </c>
@@ -9321,7 +9354,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>50</v>
       </c>
@@ -9338,7 +9371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>50</v>
       </c>
@@ -9355,7 +9388,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>51</v>
       </c>
@@ -9372,7 +9405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>154</v>
       </c>
@@ -9389,7 +9422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>7</v>
       </c>
@@ -9406,7 +9439,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>11</v>
       </c>
@@ -9423,7 +9456,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>101</v>
       </c>
@@ -9443,7 +9476,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -9463,7 +9496,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>114</v>
       </c>
@@ -9480,7 +9513,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>32</v>
       </c>
@@ -9497,7 +9530,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>11</v>
       </c>
@@ -9514,7 +9547,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>16</v>
       </c>
@@ -9534,7 +9567,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>17</v>
       </c>
@@ -9554,7 +9587,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>11</v>
       </c>
@@ -9574,7 +9607,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>11</v>
       </c>
@@ -9594,7 +9627,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>10</v>
       </c>
@@ -9614,7 +9647,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>7</v>
       </c>
@@ -9634,7 +9667,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -9654,7 +9687,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>154</v>
       </c>
@@ -9674,7 +9707,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -9694,7 +9727,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>87</v>
       </c>
@@ -9714,7 +9747,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>161</v>
       </c>
@@ -9734,7 +9767,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>32</v>
       </c>
@@ -9751,7 +9784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>10</v>
       </c>
@@ -9771,7 +9804,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>62</v>
       </c>
@@ -9791,7 +9824,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>49</v>
       </c>
@@ -9811,7 +9844,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>16</v>
       </c>
@@ -9831,7 +9864,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>32</v>
       </c>
@@ -9851,7 +9884,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -9871,7 +9904,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>24</v>
       </c>
@@ -9891,7 +9924,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>52</v>
       </c>
@@ -9908,7 +9941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>10</v>
       </c>
@@ -9925,7 +9958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>32</v>
       </c>
@@ -9942,7 +9975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>91</v>
       </c>
@@ -9959,7 +9992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>101</v>
       </c>
@@ -9976,7 +10009,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>89</v>
       </c>
@@ -9996,7 +10029,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>71</v>
       </c>
@@ -10016,7 +10049,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>35</v>
       </c>
@@ -10036,7 +10069,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>161</v>
       </c>
@@ -10056,7 +10089,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>50</v>
       </c>
@@ -10076,7 +10109,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>7</v>
       </c>
@@ -10096,7 +10129,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>35</v>
       </c>
@@ -10116,7 +10149,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>58</v>
       </c>
@@ -10136,7 +10169,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>167</v>
       </c>
@@ -10153,7 +10186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>32</v>
       </c>
@@ -10170,7 +10203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>34</v>
       </c>
@@ -10187,7 +10220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>7</v>
       </c>
@@ -10204,7 +10237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>52</v>
       </c>
@@ -10221,7 +10254,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>17</v>
       </c>
@@ -10238,7 +10271,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>62</v>
       </c>
@@ -10255,7 +10288,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>168</v>
       </c>
@@ -10272,7 +10305,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>66</v>
       </c>
@@ -10292,7 +10325,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>35</v>
       </c>
@@ -10312,7 +10345,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>167</v>
       </c>
@@ -10332,7 +10365,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>34</v>
       </c>
@@ -10349,7 +10382,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>7</v>
       </c>
@@ -10366,7 +10399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>10</v>
       </c>
@@ -10383,7 +10416,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>16</v>
       </c>
@@ -10400,7 +10433,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>32</v>
       </c>
@@ -10417,7 +10450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>86</v>
       </c>
@@ -10434,7 +10467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>34</v>
       </c>
@@ -10454,7 +10487,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>52</v>
       </c>
@@ -10471,7 +10504,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>32</v>
       </c>
@@ -10488,7 +10521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>50</v>
       </c>
@@ -10505,7 +10538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>86</v>
       </c>
@@ -10522,7 +10555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>7</v>
       </c>
@@ -10542,7 +10575,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>52</v>
       </c>
@@ -10562,7 +10595,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>7</v>
       </c>
@@ -10582,7 +10615,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>168</v>
       </c>
@@ -10602,7 +10635,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>86</v>
       </c>
@@ -10619,7 +10652,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>161</v>
       </c>
@@ -10639,7 +10672,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>50</v>
       </c>
@@ -10659,7 +10692,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>49</v>
       </c>
@@ -10679,7 +10712,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>177</v>
       </c>
@@ -10699,7 +10732,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>32</v>
       </c>
@@ -10719,7 +10752,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>10</v>
       </c>
@@ -10739,7 +10772,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>7</v>
       </c>
@@ -10759,7 +10792,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>52</v>
       </c>
@@ -10779,7 +10812,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>56</v>
       </c>
@@ -10799,7 +10832,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>87</v>
       </c>
@@ -10819,7 +10852,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>32</v>
       </c>
@@ -10836,7 +10869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>179</v>
       </c>
@@ -10853,7 +10886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>32</v>
       </c>
@@ -10873,7 +10906,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>62</v>
       </c>
@@ -10893,7 +10926,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>49</v>
       </c>
@@ -10913,7 +10946,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>33</v>
       </c>
@@ -10933,7 +10966,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>167</v>
       </c>
@@ -10953,9 +10986,608 @@
         <v>182</v>
       </c>
     </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>184</v>
+      </c>
+      <c r="B458" t="s">
+        <v>19</v>
+      </c>
+      <c r="C458" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D458" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F458" t="s">
+        <v>111</v>
+      </c>
+      <c r="K458" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>105</v>
+      </c>
+      <c r="B459" t="s">
+        <v>19</v>
+      </c>
+      <c r="C459" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D459" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F459" t="s">
+        <v>111</v>
+      </c>
+      <c r="K459" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>72</v>
+      </c>
+      <c r="B460" t="s">
+        <v>19</v>
+      </c>
+      <c r="C460" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D460" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F460" t="s">
+        <v>111</v>
+      </c>
+      <c r="K460" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>58</v>
+      </c>
+      <c r="B461" t="s">
+        <v>47</v>
+      </c>
+      <c r="C461" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D461" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F461" t="s">
+        <v>111</v>
+      </c>
+      <c r="K461" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>36</v>
+      </c>
+      <c r="B462" t="s">
+        <v>19</v>
+      </c>
+      <c r="C462" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D462" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F462" t="s">
+        <v>40</v>
+      </c>
+      <c r="K462" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>85</v>
+      </c>
+      <c r="B463" t="s">
+        <v>19</v>
+      </c>
+      <c r="C463" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D463" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F463" t="s">
+        <v>40</v>
+      </c>
+      <c r="K463" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>88</v>
+      </c>
+      <c r="B464" t="s">
+        <v>19</v>
+      </c>
+      <c r="C464" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D464" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F464" t="s">
+        <v>40</v>
+      </c>
+      <c r="K464" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>92</v>
+      </c>
+      <c r="B465" t="s">
+        <v>19</v>
+      </c>
+      <c r="C465" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D465" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F465" t="s">
+        <v>40</v>
+      </c>
+      <c r="K465" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>72</v>
+      </c>
+      <c r="B466" t="s">
+        <v>19</v>
+      </c>
+      <c r="C466" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D466" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F466" t="s">
+        <v>40</v>
+      </c>
+      <c r="K466" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>75</v>
+      </c>
+      <c r="B467" t="s">
+        <v>19</v>
+      </c>
+      <c r="C467" s="2">
+        <v>43966</v>
+      </c>
+      <c r="D467" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F467" t="s">
+        <v>40</v>
+      </c>
+      <c r="K467" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>72</v>
+      </c>
+      <c r="B468" t="s">
+        <v>19</v>
+      </c>
+      <c r="C468" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D468" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F468" t="s">
+        <v>40</v>
+      </c>
+      <c r="K468" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>92</v>
+      </c>
+      <c r="B469" t="s">
+        <v>19</v>
+      </c>
+      <c r="C469" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D469" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F469" t="s">
+        <v>40</v>
+      </c>
+      <c r="K469" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>78</v>
+      </c>
+      <c r="B470" t="s">
+        <v>19</v>
+      </c>
+      <c r="C470" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D470" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F470" t="s">
+        <v>40</v>
+      </c>
+      <c r="K470" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>60</v>
+      </c>
+      <c r="B471" t="s">
+        <v>19</v>
+      </c>
+      <c r="C471" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D471" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F471" t="s">
+        <v>40</v>
+      </c>
+      <c r="K471" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>59</v>
+      </c>
+      <c r="B472" t="s">
+        <v>19</v>
+      </c>
+      <c r="C472" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D472" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F472" t="s">
+        <v>40</v>
+      </c>
+      <c r="K472" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" t="s">
+        <v>19</v>
+      </c>
+      <c r="C473" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D473" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F473" t="s">
+        <v>40</v>
+      </c>
+      <c r="K473" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>130</v>
+      </c>
+      <c r="B474" t="s">
+        <v>19</v>
+      </c>
+      <c r="C474" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D474" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F474" t="s">
+        <v>40</v>
+      </c>
+      <c r="K474" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>127</v>
+      </c>
+      <c r="B475" t="s">
+        <v>19</v>
+      </c>
+      <c r="C475" s="2">
+        <v>43969</v>
+      </c>
+      <c r="D475" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="F475" t="s">
+        <v>40</v>
+      </c>
+      <c r="K475" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>84</v>
+      </c>
+      <c r="B476" t="s">
+        <v>19</v>
+      </c>
+      <c r="C476" s="2">
+        <v>43964</v>
+      </c>
+      <c r="D476" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F476" t="s">
+        <v>26</v>
+      </c>
+      <c r="K476" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>130</v>
+      </c>
+      <c r="B477" t="s">
+        <v>19</v>
+      </c>
+      <c r="C477" s="2">
+        <v>43964</v>
+      </c>
+      <c r="D477" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F477" t="s">
+        <v>26</v>
+      </c>
+      <c r="K477" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>79</v>
+      </c>
+      <c r="B478" t="s">
+        <v>19</v>
+      </c>
+      <c r="C478" s="2">
+        <v>43964</v>
+      </c>
+      <c r="D478" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F478" t="s">
+        <v>26</v>
+      </c>
+      <c r="K478" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>58</v>
+      </c>
+      <c r="B479" t="s">
+        <v>47</v>
+      </c>
+      <c r="C479" s="2">
+        <v>43967</v>
+      </c>
+      <c r="D479" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F479" t="s">
+        <v>26</v>
+      </c>
+      <c r="K479" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>89</v>
+      </c>
+      <c r="B480" t="s">
+        <v>19</v>
+      </c>
+      <c r="C480" s="2">
+        <v>43967</v>
+      </c>
+      <c r="D480" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F480" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B481" t="s">
+        <v>19</v>
+      </c>
+      <c r="C481" s="2">
+        <v>43953</v>
+      </c>
+      <c r="D481" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F481" t="s">
+        <v>26</v>
+      </c>
+      <c r="K481" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>75</v>
+      </c>
+      <c r="B482" t="s">
+        <v>19</v>
+      </c>
+      <c r="C482" s="2">
+        <v>43953</v>
+      </c>
+      <c r="D482" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F482" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>193</v>
+      </c>
+      <c r="B483" t="s">
+        <v>19</v>
+      </c>
+      <c r="C483" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D483" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F483" t="s">
+        <v>26</v>
+      </c>
+      <c r="K483" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>84</v>
+      </c>
+      <c r="B484" t="s">
+        <v>19</v>
+      </c>
+      <c r="C484" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D484" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F484" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>177</v>
+      </c>
+      <c r="B485" t="s">
+        <v>19</v>
+      </c>
+      <c r="C485" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D485" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F485" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>32</v>
+      </c>
+      <c r="B486" t="s">
+        <v>19</v>
+      </c>
+      <c r="C486" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D486" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F486" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>52</v>
+      </c>
+      <c r="B487" t="s">
+        <v>19</v>
+      </c>
+      <c r="C487" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D487" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F487" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>35</v>
+      </c>
+      <c r="B488" t="s">
+        <v>19</v>
+      </c>
+      <c r="C488" s="2">
+        <v>43951</v>
+      </c>
+      <c r="D488" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F488" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:A336" xr:uid="{C7E5F994-3E21-47C1-9550-D67738D7F487}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
+  <sortState ref="A2:J11">
     <sortCondition ref="C2:C11"/>
     <sortCondition ref="D2:D11"/>
   </sortState>
@@ -10976,24 +11608,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42CCDDF-B82C-473A-BA64-AC8E9D5BEFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38D0BD9-B830-4398-A956-89ECD4D0306C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2115" windowWidth="10800" windowHeight="7830" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2227" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="200">
   <si>
     <t>taxon</t>
   </si>
@@ -611,6 +611,24 @@
   </si>
   <si>
     <t>chimney swift</t>
+  </si>
+  <si>
+    <t>time unspecified, but after the news</t>
+  </si>
+  <si>
+    <t>time unspecified, but hot afternoon</t>
+  </si>
+  <si>
+    <t>bracketing… "By a few days later, the trees purred with cicadas, and as I write this on the 12th of June, they still do. Each morning, Brooklyn and I walk through town beneath a cloud of murmurs and humming, as the cicadas gear up for the noisy day."</t>
+  </si>
+  <si>
+    <t>time unspecified, but morning moss work with Wayne</t>
+  </si>
+  <si>
+    <t>times estimated</t>
+  </si>
+  <si>
+    <t>purely a placeholder: the cranes streamed by all day</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K488"/>
+  <dimension ref="A1:K511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A456" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C485" sqref="C485"/>
+    <sheetView tabSelected="1" topLeftCell="A480" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A504" sqref="A504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11583,6 +11601,433 @@
       </c>
       <c r="F488" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>75</v>
+      </c>
+      <c r="B489" t="s">
+        <v>19</v>
+      </c>
+      <c r="C489" s="2">
+        <v>44006</v>
+      </c>
+      <c r="D489" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="F489" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>58</v>
+      </c>
+      <c r="B490" t="s">
+        <v>47</v>
+      </c>
+      <c r="C490" s="2">
+        <v>44006</v>
+      </c>
+      <c r="D490" s="3">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="F490" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>72</v>
+      </c>
+      <c r="B491" t="s">
+        <v>19</v>
+      </c>
+      <c r="C491" s="2">
+        <v>44006</v>
+      </c>
+      <c r="D491" s="3">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="F491" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>36</v>
+      </c>
+      <c r="B492" t="s">
+        <v>19</v>
+      </c>
+      <c r="C492" s="2">
+        <v>44006</v>
+      </c>
+      <c r="D492" s="3">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="F492" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>72</v>
+      </c>
+      <c r="B493" t="s">
+        <v>19</v>
+      </c>
+      <c r="C493" s="2">
+        <v>43979</v>
+      </c>
+      <c r="D493" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F493" t="s">
+        <v>26</v>
+      </c>
+      <c r="K493" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>75</v>
+      </c>
+      <c r="B494" t="s">
+        <v>19</v>
+      </c>
+      <c r="C494" s="2">
+        <v>43980</v>
+      </c>
+      <c r="D494" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F494" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>71</v>
+      </c>
+      <c r="B495" t="s">
+        <v>19</v>
+      </c>
+      <c r="C495" s="2">
+        <v>43980</v>
+      </c>
+      <c r="D495" s="3">
+        <v>0.30208333333333331</v>
+      </c>
+      <c r="F495" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>143</v>
+      </c>
+      <c r="B496" t="s">
+        <v>22</v>
+      </c>
+      <c r="C496" s="2">
+        <v>43984</v>
+      </c>
+      <c r="D496" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F496" t="s">
+        <v>111</v>
+      </c>
+      <c r="K496" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>143</v>
+      </c>
+      <c r="B497" t="s">
+        <v>22</v>
+      </c>
+      <c r="C497" s="2">
+        <v>43994</v>
+      </c>
+      <c r="D497" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F497" t="s">
+        <v>111</v>
+      </c>
+      <c r="K497" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>143</v>
+      </c>
+      <c r="B498" t="s">
+        <v>22</v>
+      </c>
+      <c r="C498" s="2">
+        <v>44024</v>
+      </c>
+      <c r="D498" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F498" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>11</v>
+      </c>
+      <c r="B499" t="s">
+        <v>19</v>
+      </c>
+      <c r="C499" s="2">
+        <v>44128</v>
+      </c>
+      <c r="D499" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F499" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>113</v>
+      </c>
+      <c r="B500" t="s">
+        <v>19</v>
+      </c>
+      <c r="C500" s="2">
+        <v>44128</v>
+      </c>
+      <c r="D500" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F500" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>7</v>
+      </c>
+      <c r="B501" t="s">
+        <v>19</v>
+      </c>
+      <c r="C501" s="2">
+        <v>44049</v>
+      </c>
+      <c r="D501" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F501" t="s">
+        <v>40</v>
+      </c>
+      <c r="K501" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>72</v>
+      </c>
+      <c r="B502" t="s">
+        <v>19</v>
+      </c>
+      <c r="C502" s="2">
+        <v>44049</v>
+      </c>
+      <c r="D502" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F502" t="s">
+        <v>40</v>
+      </c>
+      <c r="K502" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>13</v>
+      </c>
+      <c r="B503" t="s">
+        <v>19</v>
+      </c>
+      <c r="C503" s="2">
+        <v>44050</v>
+      </c>
+      <c r="D503" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F503" t="s">
+        <v>26</v>
+      </c>
+      <c r="K503" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>71</v>
+      </c>
+      <c r="B504" t="s">
+        <v>19</v>
+      </c>
+      <c r="C504" s="2">
+        <v>44050</v>
+      </c>
+      <c r="D504" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F504" t="s">
+        <v>26</v>
+      </c>
+      <c r="K504" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>17</v>
+      </c>
+      <c r="B505" t="s">
+        <v>19</v>
+      </c>
+      <c r="C505" s="2">
+        <v>44050</v>
+      </c>
+      <c r="D505" s="3">
+        <v>0.3125</v>
+      </c>
+      <c r="F505" t="s">
+        <v>26</v>
+      </c>
+      <c r="K505" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" t="s">
+        <v>19</v>
+      </c>
+      <c r="C506" s="2">
+        <v>44056</v>
+      </c>
+      <c r="D506" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F506" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>11</v>
+      </c>
+      <c r="B507" t="s">
+        <v>19</v>
+      </c>
+      <c r="C507" s="2">
+        <v>44056</v>
+      </c>
+      <c r="D507" s="3">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="F507" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>49</v>
+      </c>
+      <c r="B508" t="s">
+        <v>19</v>
+      </c>
+      <c r="C508" s="2">
+        <v>44144</v>
+      </c>
+      <c r="D508" s="3">
+        <v>0.625</v>
+      </c>
+      <c r="F508" t="s">
+        <v>40</v>
+      </c>
+      <c r="K508" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>98</v>
+      </c>
+      <c r="B509" t="s">
+        <v>19</v>
+      </c>
+      <c r="C509" s="2">
+        <v>44146</v>
+      </c>
+      <c r="D509" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F509" t="s">
+        <v>111</v>
+      </c>
+      <c r="K509" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>154</v>
+      </c>
+      <c r="B510" t="s">
+        <v>19</v>
+      </c>
+      <c r="C510" s="2">
+        <v>44146</v>
+      </c>
+      <c r="D510" s="3">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F510" t="s">
+        <v>111</v>
+      </c>
+      <c r="K510" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>101</v>
+      </c>
+      <c r="B511" t="s">
+        <v>19</v>
+      </c>
+      <c r="C511" s="2">
+        <v>44156</v>
+      </c>
+      <c r="D511" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F511" t="s">
+        <v>111</v>
+      </c>
+      <c r="K511" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F1CB3A-9F39-4A29-A766-107CE7514D5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EA6622-3C6C-4479-8800-6CD91DB1FEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10530" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
   <sheets>
     <sheet name="observations" sheetId="1" r:id="rId1"/>
     <sheet name="reviewedPosts" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">observations!$A$1:$A$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">observations!$A$1:$A$513</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="200">
   <si>
     <t>taxon</t>
   </si>
@@ -1016,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K512"/>
+  <dimension ref="A1:K513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A458" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F504" sqref="F504:F512"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A273" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -12656,6 +12656,26 @@
         <v>9</v>
       </c>
       <c r="J512" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="513" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A513" t="s">
+        <v>11</v>
+      </c>
+      <c r="B513" t="s">
+        <v>19</v>
+      </c>
+      <c r="C513" s="2">
+        <v>44534</v>
+      </c>
+      <c r="D513" s="3">
+        <v>0.94097222222222221</v>
+      </c>
+      <c r="F513" t="s">
+        <v>9</v>
+      </c>
+      <c r="J513" t="s">
         <v>37</v>
       </c>
     </row>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\code\auralLandscapes\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60EA6622-3C6C-4479-8800-6CD91DB1FEFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF0D79-B844-481A-A9E3-3B190815E49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="200">
   <si>
     <t>taxon</t>
   </si>
@@ -1016,27 +1016,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K513"/>
+  <dimension ref="A1:K514"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A273" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J514" sqref="J514"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.40625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.40625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" customWidth="1"/>
-    <col min="8" max="8" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.26953125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -1842,7 +1842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>52</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>59</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>62</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>33</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -2289,7 +2289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>59</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>33</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>35</v>
       </c>
@@ -2572,7 +2572,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>33</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>73</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>60</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>59</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>83</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>84</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>73</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>62</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>89</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>12</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>62</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>73</v>
       </c>
@@ -3170,7 +3170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -3222,7 +3222,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>59</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>66</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>60</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>72</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>75</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>84</v>
       </c>
@@ -3404,7 +3404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>12</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>52</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>85</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>86</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>78</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>78</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>79</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>36</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -3698,7 +3698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>72</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>7</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>73</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -3828,7 +3828,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>75</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>94</v>
       </c>
@@ -3906,7 +3906,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>72</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>99</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>33</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>13</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>49</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>96</v>
       </c>
@@ -4116,7 +4116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>33</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>60</v>
       </c>
@@ -4185,7 +4185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>97</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>32</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>52</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>17</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>98</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>32</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>52</v>
       </c>
@@ -4363,7 +4363,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>33</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>62</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>24</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -4483,7 +4483,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>60</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>49</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>52</v>
       </c>
@@ -4666,7 +4666,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>10</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>7</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>62</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>49</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>56</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>60</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>50</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>52</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>86</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>7</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>24</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -5053,7 +5053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>7</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>83</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>66</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>62</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>33</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>52</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>58</v>
       </c>
@@ -5196,7 +5196,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>36</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>75</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>35</v>
       </c>
@@ -5265,7 +5265,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>66</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>91</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>75</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>84</v>
       </c>
@@ -5357,7 +5357,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>60</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>79</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>35</v>
       </c>
@@ -5449,7 +5449,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>87</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>59</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>13</v>
       </c>
@@ -5541,7 +5541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>109</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>83</v>
       </c>
@@ -5587,7 +5587,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>34</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>73</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>84</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>92</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>110</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>89</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>72</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>92</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>59</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>33</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>66</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>36</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>84</v>
       </c>
@@ -5886,7 +5886,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>105</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>72</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>62</v>
       </c>
@@ -5955,7 +5955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>17</v>
       </c>
@@ -5978,7 +5978,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>71</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>58</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>71</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>72</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>72</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>7</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>32</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>75</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>71</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>58</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>94</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>10</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>72</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>96</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>73</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>59</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>66</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>92</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>7</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>60</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>92</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>72</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>91</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>52</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>84</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>10</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>94</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>71</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>96</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>11</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>94</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>39</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>113</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>16</v>
       </c>
@@ -6750,7 +6750,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>114</v>
       </c>
@@ -6770,7 +6770,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>10</v>
       </c>
@@ -6790,7 +6790,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>10</v>
       </c>
@@ -6810,7 +6810,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>16</v>
       </c>
@@ -6830,7 +6830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>17</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -6876,7 +6876,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>87</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>49</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>49</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>87</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>33</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>35</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>59</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>7</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>33</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>60</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>86</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>58</v>
       </c>
@@ -7177,7 +7177,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>49</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>50</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>58</v>
       </c>
@@ -7246,7 +7246,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>122</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>126</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>75</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>36</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>7</v>
       </c>
@@ -7355,7 +7355,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>73</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>105</v>
       </c>
@@ -7395,7 +7395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>89</v>
       </c>
@@ -7415,7 +7415,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>88</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>79</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>126</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>85</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>36</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>58</v>
       </c>
@@ -7550,7 +7550,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>58</v>
       </c>
@@ -7573,7 +7573,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>92</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>109</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>75</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>94</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>72</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>92</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>84</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>75</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>130</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>105</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>7</v>
       </c>
@@ -7811,7 +7811,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>127</v>
       </c>
@@ -7834,7 +7834,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>72</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>58</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>50</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>75</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>72</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>71</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>11</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>58</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>71</v>
       </c>
@@ -8041,7 +8041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>84</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>72</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>32</v>
       </c>
@@ -8110,7 +8110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>75</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>143</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>72</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>92</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>7</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>12</v>
       </c>
@@ -8271,7 +8271,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>71</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>16</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>59</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>16</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>72</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>146</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>143</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>72</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>146</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>87</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>72</v>
       </c>
@@ -8503,7 +8503,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>146</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>21</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>33</v>
       </c>
@@ -8569,7 +8569,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>146</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>50</v>
       </c>
@@ -8612,7 +8612,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>50</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>50</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>51</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>51</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>154</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>7</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>101</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>16</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>114</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>32</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>11</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>11</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>16</v>
       </c>
@@ -8884,7 +8884,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>17</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>11</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>11</v>
       </c>
@@ -8953,7 +8953,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>52</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>10</v>
       </c>
@@ -8993,7 +8993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>32</v>
       </c>
@@ -9013,7 +9013,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>91</v>
       </c>
@@ -9033,7 +9033,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>101</v>
       </c>
@@ -9053,7 +9053,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>32</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -9099,7 +9099,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>24</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>10</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>62</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>49</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>16</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>32</v>
       </c>
@@ -9234,7 +9234,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>10</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>17</v>
       </c>
@@ -9303,7 +9303,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>154</v>
       </c>
@@ -9326,7 +9326,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -9349,7 +9349,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>87</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>161</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>167</v>
       </c>
@@ -9418,7 +9418,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>87</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>32</v>
       </c>
@@ -9461,7 +9461,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>179</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>32</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>62</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>49</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>33</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>50</v>
       </c>
@@ -9596,7 +9596,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>49</v>
       </c>
@@ -9619,7 +9619,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>177</v>
       </c>
@@ -9642,7 +9642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>32</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>10</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>7</v>
       </c>
@@ -9711,7 +9711,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>52</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>56</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>161</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>52</v>
       </c>
@@ -9803,7 +9803,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>7</v>
       </c>
@@ -9826,7 +9826,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>168</v>
       </c>
@@ -9849,7 +9849,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>86</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>167</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>34</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>7</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>10</v>
       </c>
@@ -9952,7 +9952,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -9972,7 +9972,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>32</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>86</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>34</v>
       </c>
@@ -10035,7 +10035,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>52</v>
       </c>
@@ -10055,7 +10055,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>32</v>
       </c>
@@ -10075,7 +10075,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>50</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>86</v>
       </c>
@@ -10115,7 +10115,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>7</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>167</v>
       </c>
@@ -10158,7 +10158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>32</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>34</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>7</v>
       </c>
@@ -10218,7 +10218,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>52</v>
       </c>
@@ -10238,7 +10238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>17</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>62</v>
       </c>
@@ -10278,7 +10278,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>168</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>66</v>
       </c>
@@ -10321,7 +10321,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>35</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>89</v>
       </c>
@@ -10367,7 +10367,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>71</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>35</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>161</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>50</v>
       </c>
@@ -10459,7 +10459,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>7</v>
       </c>
@@ -10482,7 +10482,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>35</v>
       </c>
@@ -10505,7 +10505,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>58</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>193</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>84</v>
       </c>
@@ -10571,7 +10571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>177</v>
       </c>
@@ -10591,7 +10591,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>32</v>
       </c>
@@ -10611,7 +10611,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>52</v>
       </c>
@@ -10631,7 +10631,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>35</v>
       </c>
@@ -10651,7 +10651,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>191</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>75</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>84</v>
       </c>
@@ -10717,7 +10717,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>130</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>79</v>
       </c>
@@ -10763,7 +10763,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>184</v>
       </c>
@@ -10786,7 +10786,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>105</v>
       </c>
@@ -10809,7 +10809,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>72</v>
       </c>
@@ -10832,7 +10832,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>58</v>
       </c>
@@ -10855,7 +10855,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>36</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>85</v>
       </c>
@@ -10901,7 +10901,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>88</v>
       </c>
@@ -10924,7 +10924,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>92</v>
       </c>
@@ -10947,7 +10947,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>72</v>
       </c>
@@ -10970,7 +10970,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>75</v>
       </c>
@@ -10993,7 +10993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>58</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>89</v>
       </c>
@@ -11036,7 +11036,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>72</v>
       </c>
@@ -11059,7 +11059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>92</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>78</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>60</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>59</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>16</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>130</v>
       </c>
@@ -11197,7 +11197,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>127</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>72</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>75</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>71</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>143</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>143</v>
       </c>
@@ -11329,7 +11329,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>75</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>58</v>
       </c>
@@ -11369,7 +11369,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>72</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>36</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>143</v>
       </c>
@@ -11429,7 +11429,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>7</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>72</v>
       </c>
@@ -11475,7 +11475,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>13</v>
       </c>
@@ -11498,7 +11498,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>71</v>
       </c>
@@ -11521,7 +11521,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>17</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>7</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>11</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>11</v>
       </c>
@@ -11604,7 +11604,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>113</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>49</v>
       </c>
@@ -11647,7 +11647,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>98</v>
       </c>
@@ -11670,7 +11670,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>154</v>
       </c>
@@ -11693,7 +11693,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>101</v>
       </c>
@@ -11716,7 +11716,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>10</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>7</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>24</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>17</v>
       </c>
@@ -11826,7 +11826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>32</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>33</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>7</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>34</v>
       </c>
@@ -11927,7 +11927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>35</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>36</v>
       </c>
@@ -11973,7 +11973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>10</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>7</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>7</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>10</v>
       </c>
@@ -12065,7 +12065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>24</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>11</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>10</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>7</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>11</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>12</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>13</v>
       </c>
@@ -12226,7 +12226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>16</v>
       </c>
@@ -12249,7 +12249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>17</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>11</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>10</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>12</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>11</v>
       </c>
@@ -12364,7 +12364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>21</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>10</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>10</v>
       </c>
@@ -12433,7 +12433,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>10</v>
       </c>
@@ -12456,7 +12456,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>12</v>
       </c>
@@ -12479,7 +12479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>10</v>
       </c>
@@ -12492,6 +12492,9 @@
       <c r="D504" s="3">
         <v>0.22222222222222221</v>
       </c>
+      <c r="E504" t="s">
+        <v>8</v>
+      </c>
       <c r="F504" t="s">
         <v>9</v>
       </c>
@@ -12499,7 +12502,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -12512,6 +12515,9 @@
       <c r="D505" s="3">
         <v>0.24652777777777779</v>
       </c>
+      <c r="E505" t="s">
+        <v>8</v>
+      </c>
       <c r="F505" t="s">
         <v>9</v>
       </c>
@@ -12519,7 +12525,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -12532,6 +12538,9 @@
       <c r="D506" s="3">
         <v>0.25347222222222221</v>
       </c>
+      <c r="E506" t="s">
+        <v>8</v>
+      </c>
       <c r="F506" t="s">
         <v>9</v>
       </c>
@@ -12539,7 +12548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>10</v>
       </c>
@@ -12552,6 +12561,9 @@
       <c r="D507" s="3">
         <v>0.22916666666666666</v>
       </c>
+      <c r="E507" t="s">
+        <v>8</v>
+      </c>
       <c r="F507" t="s">
         <v>9</v>
       </c>
@@ -12559,7 +12571,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>10</v>
       </c>
@@ -12572,6 +12584,9 @@
       <c r="D508" s="3">
         <v>0.22708333333333333</v>
       </c>
+      <c r="E508" t="s">
+        <v>8</v>
+      </c>
       <c r="F508" t="s">
         <v>9</v>
       </c>
@@ -12579,7 +12594,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>13</v>
       </c>
@@ -12592,6 +12607,9 @@
       <c r="D509" s="3">
         <v>0.23958333333333334</v>
       </c>
+      <c r="E509" t="s">
+        <v>8</v>
+      </c>
       <c r="F509" t="s">
         <v>9</v>
       </c>
@@ -12599,7 +12617,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>52</v>
       </c>
@@ -12612,6 +12630,9 @@
       <c r="D510" s="3">
         <v>0.25347222222222221</v>
       </c>
+      <c r="E510" t="s">
+        <v>8</v>
+      </c>
       <c r="F510" t="s">
         <v>9</v>
       </c>
@@ -12619,7 +12640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>10</v>
       </c>
@@ -12632,6 +12653,9 @@
       <c r="D511" s="3">
         <v>0.22916666666666666</v>
       </c>
+      <c r="E511" t="s">
+        <v>8</v>
+      </c>
       <c r="F511" t="s">
         <v>9</v>
       </c>
@@ -12639,7 +12663,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>10</v>
       </c>
@@ -12652,6 +12676,9 @@
       <c r="D512" s="3">
         <v>0.23263888888888887</v>
       </c>
+      <c r="E512" t="s">
+        <v>8</v>
+      </c>
       <c r="F512" t="s">
         <v>9</v>
       </c>
@@ -12659,7 +12686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.75">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>11</v>
       </c>
@@ -12672,6 +12699,9 @@
       <c r="D513" s="3">
         <v>0.94097222222222221</v>
       </c>
+      <c r="E513" t="s">
+        <v>8</v>
+      </c>
       <c r="F513" t="s">
         <v>9</v>
       </c>
@@ -12679,8 +12709,31 @@
         <v>37</v>
       </c>
     </row>
+    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>52</v>
+      </c>
+      <c r="B514" t="s">
+        <v>19</v>
+      </c>
+      <c r="C514" s="2">
+        <v>44574</v>
+      </c>
+      <c r="D514" s="3">
+        <v>0.3972222222222222</v>
+      </c>
+      <c r="E514" t="s">
+        <v>8</v>
+      </c>
+      <c r="F514" t="s">
+        <v>9</v>
+      </c>
+      <c r="J514" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K512">
+  <sortState ref="A2:K512">
     <sortCondition ref="C2:C512"/>
     <sortCondition ref="D2:D512"/>
   </sortState>
@@ -12701,24 +12754,24 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>

--- a/data/auralObservations.xlsx
+++ b/data/auralObservations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahipp\Documents\CODE\auralLandscapes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CF0D79-B844-481A-A9E3-3B190815E49C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD937E5-C5FA-451D-8B21-109AC9F1123F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{FC8E283B-D15F-4A14-9FD2-F23A4F60CEBF}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2534" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="200">
   <si>
     <t>taxon</t>
   </si>
@@ -1016,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5830C5A1-1504-4FB4-98E5-D787D6C4A5A6}">
-  <dimension ref="A1:K514"/>
+  <dimension ref="A1:K517"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J514" sqref="J514"/>
+      <selection activeCell="J517" sqref="J517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12729,6 +12729,75 @@
         <v>9</v>
       </c>
       <c r="J514" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>52</v>
+      </c>
+      <c r="B515" t="s">
+        <v>19</v>
+      </c>
+      <c r="C515" s="2">
+        <v>44581</v>
+      </c>
+      <c r="D515" s="3">
+        <v>0.3298611111111111</v>
+      </c>
+      <c r="E515" t="s">
+        <v>8</v>
+      </c>
+      <c r="F515" t="s">
+        <v>9</v>
+      </c>
+      <c r="J515" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>52</v>
+      </c>
+      <c r="B516" t="s">
+        <v>19</v>
+      </c>
+      <c r="C516" s="2">
+        <v>44582</v>
+      </c>
+      <c r="D516" s="3">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="E516" t="s">
+        <v>8</v>
+      </c>
+      <c r="F516" t="s">
+        <v>9</v>
+      </c>
+      <c r="J516" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>10</v>
+      </c>
+      <c r="B517" t="s">
+        <v>19</v>
+      </c>
+      <c r="C517" s="2">
+        <v>44587</v>
+      </c>
+      <c r="D517" s="3">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="E517" t="s">
+        <v>8</v>
+      </c>
+      <c r="F517" t="s">
+        <v>26</v>
+      </c>
+      <c r="J517" t="s">
         <v>37</v>
       </c>
     </row>
